--- a/导表工具/G-公会副本--删除.xlsx
+++ b/导表工具/G-公会副本--删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="副本配置" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="229">
   <si>
     <t>导出类型</t>
   </si>
@@ -779,12 +779,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -870,13 +870,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -884,16 +877,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,40 +943,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,15 +967,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,6 +984,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -982,11 +1006,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,27 +1022,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1066,7 +1077,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1149,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,55 +1221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,79 +1245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,6 +1323,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1327,31 +1347,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,17 +1386,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1399,151 +1410,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2051,10 +2062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2066,210 +2077,224 @@
     <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>12</v>
+      <c r="A6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>5000</v>
+        <v>27001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>27001</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" ht="99" spans="1:4">
+      <c r="A12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" ht="99" spans="1:4">
-      <c r="A13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>52001</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>52001</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -2277,129 +2302,119 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
+      <c r="C18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D26">
+      <c r="D25">
         <v>10</v>
       </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="24"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="24"/>
@@ -2416,10 +2431,6 @@
     <row r="30" spans="1:3">
       <c r="A30" s="24"/>
       <c r="C30" s="24"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="C31" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,7 +2443,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F308"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
@@ -2448,122 +2459,139 @@
     <col min="6" max="6" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>71</v>
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="12" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>250001</v>
+      </c>
+      <c r="D8">
+        <v>600001</v>
+      </c>
+      <c r="E8">
+        <v>610001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>250001</v>
       </c>
       <c r="D9">
-        <v>600001</v>
+        <v>600002</v>
       </c>
       <c r="E9">
-        <v>610001</v>
+        <v>610002</v>
       </c>
       <c r="F9" t="s">
         <v>77</v>
@@ -2571,16 +2599,16 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>250001</v>
       </c>
       <c r="D10">
-        <v>600002</v>
+        <v>600003</v>
       </c>
       <c r="E10">
-        <v>610002</v>
+        <v>610003</v>
       </c>
       <c r="F10" t="s">
         <v>77</v>
@@ -2588,16 +2616,16 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>250001</v>
       </c>
       <c r="D11">
-        <v>600003</v>
+        <v>600004</v>
       </c>
       <c r="E11">
-        <v>610003</v>
+        <v>610004</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
@@ -2605,16 +2633,16 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>250001</v>
       </c>
       <c r="D12">
-        <v>600004</v>
+        <v>600005</v>
       </c>
       <c r="E12">
-        <v>610004</v>
+        <v>610005</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2622,16 +2650,16 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>250001</v>
       </c>
       <c r="D13">
-        <v>600005</v>
+        <v>600006</v>
       </c>
       <c r="E13">
-        <v>610005</v>
+        <v>610006</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2639,16 +2667,16 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>250001</v>
       </c>
       <c r="D14">
-        <v>600006</v>
+        <v>600007</v>
       </c>
       <c r="E14">
-        <v>610006</v>
+        <v>610007</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2656,16 +2684,16 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>250001</v>
       </c>
       <c r="D15">
-        <v>600007</v>
+        <v>600008</v>
       </c>
       <c r="E15">
-        <v>610007</v>
+        <v>610008</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
@@ -2673,16 +2701,16 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>250001</v>
       </c>
       <c r="D16">
-        <v>600008</v>
+        <v>600009</v>
       </c>
       <c r="E16">
-        <v>610008</v>
+        <v>610009</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -2690,16 +2718,16 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>250001</v>
       </c>
       <c r="D17">
-        <v>600009</v>
+        <v>600010</v>
       </c>
       <c r="E17">
-        <v>610009</v>
+        <v>610010</v>
       </c>
       <c r="F17" t="s">
         <v>77</v>
@@ -2707,16 +2735,16 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>250001</v>
       </c>
       <c r="D18">
-        <v>600010</v>
+        <v>600011</v>
       </c>
       <c r="E18">
-        <v>610010</v>
+        <v>610011</v>
       </c>
       <c r="F18" t="s">
         <v>77</v>
@@ -2724,16 +2752,16 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>250001</v>
       </c>
       <c r="D19">
-        <v>600011</v>
+        <v>600012</v>
       </c>
       <c r="E19">
-        <v>610011</v>
+        <v>610012</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>
@@ -2741,16 +2769,16 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>250001</v>
       </c>
       <c r="D20">
-        <v>600012</v>
+        <v>600013</v>
       </c>
       <c r="E20">
-        <v>610012</v>
+        <v>610013</v>
       </c>
       <c r="F20" t="s">
         <v>77</v>
@@ -2758,16 +2786,16 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>250001</v>
       </c>
       <c r="D21">
-        <v>600013</v>
+        <v>600014</v>
       </c>
       <c r="E21">
-        <v>610013</v>
+        <v>610014</v>
       </c>
       <c r="F21" t="s">
         <v>77</v>
@@ -2775,16 +2803,16 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>250001</v>
       </c>
       <c r="D22">
-        <v>600014</v>
+        <v>600015</v>
       </c>
       <c r="E22">
-        <v>610014</v>
+        <v>610015</v>
       </c>
       <c r="F22" t="s">
         <v>77</v>
@@ -2792,16 +2820,16 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>250001</v>
       </c>
       <c r="D23">
-        <v>600015</v>
+        <v>600016</v>
       </c>
       <c r="E23">
-        <v>610015</v>
+        <v>610016</v>
       </c>
       <c r="F23" t="s">
         <v>77</v>
@@ -2809,33 +2837,33 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>250001</v>
+        <v>250002</v>
       </c>
       <c r="D24">
-        <v>600016</v>
+        <v>600017</v>
       </c>
       <c r="E24">
-        <v>610016</v>
+        <v>610017</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>250002</v>
       </c>
       <c r="D25">
-        <v>600017</v>
+        <v>600018</v>
       </c>
       <c r="E25">
-        <v>610017</v>
+        <v>610018</v>
       </c>
       <c r="F25" t="s">
         <v>78</v>
@@ -2843,16 +2871,16 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>250002</v>
       </c>
       <c r="D26">
-        <v>600018</v>
+        <v>600019</v>
       </c>
       <c r="E26">
-        <v>610018</v>
+        <v>610019</v>
       </c>
       <c r="F26" t="s">
         <v>78</v>
@@ -2860,16 +2888,16 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>250002</v>
       </c>
       <c r="D27">
-        <v>600019</v>
+        <v>600020</v>
       </c>
       <c r="E27">
-        <v>610019</v>
+        <v>610020</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
@@ -2877,16 +2905,16 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>250002</v>
       </c>
       <c r="D28">
-        <v>600020</v>
+        <v>600021</v>
       </c>
       <c r="E28">
-        <v>610020</v>
+        <v>610021</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -2894,16 +2922,16 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>250002</v>
       </c>
       <c r="D29">
-        <v>600021</v>
+        <v>600022</v>
       </c>
       <c r="E29">
-        <v>610021</v>
+        <v>610022</v>
       </c>
       <c r="F29" t="s">
         <v>78</v>
@@ -2911,16 +2939,16 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>250002</v>
       </c>
       <c r="D30">
-        <v>600022</v>
+        <v>600023</v>
       </c>
       <c r="E30">
-        <v>610022</v>
+        <v>610023</v>
       </c>
       <c r="F30" t="s">
         <v>78</v>
@@ -2928,16 +2956,16 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>250002</v>
       </c>
       <c r="D31">
-        <v>600023</v>
+        <v>600024</v>
       </c>
       <c r="E31">
-        <v>610023</v>
+        <v>610024</v>
       </c>
       <c r="F31" t="s">
         <v>78</v>
@@ -2945,16 +2973,16 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>250002</v>
       </c>
       <c r="D32">
-        <v>600024</v>
+        <v>600025</v>
       </c>
       <c r="E32">
-        <v>610024</v>
+        <v>610025</v>
       </c>
       <c r="F32" t="s">
         <v>78</v>
@@ -2962,16 +2990,16 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>250002</v>
       </c>
       <c r="D33">
-        <v>600025</v>
+        <v>600026</v>
       </c>
       <c r="E33">
-        <v>610025</v>
+        <v>610026</v>
       </c>
       <c r="F33" t="s">
         <v>78</v>
@@ -2979,16 +3007,16 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>250002</v>
       </c>
       <c r="D34">
-        <v>600026</v>
+        <v>600027</v>
       </c>
       <c r="E34">
-        <v>610026</v>
+        <v>610027</v>
       </c>
       <c r="F34" t="s">
         <v>78</v>
@@ -2996,16 +3024,16 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>250002</v>
       </c>
       <c r="D35">
-        <v>600027</v>
+        <v>600028</v>
       </c>
       <c r="E35">
-        <v>610027</v>
+        <v>610028</v>
       </c>
       <c r="F35" t="s">
         <v>78</v>
@@ -3013,16 +3041,16 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36">
         <v>250002</v>
       </c>
       <c r="D36">
-        <v>600028</v>
+        <v>600029</v>
       </c>
       <c r="E36">
-        <v>610028</v>
+        <v>610029</v>
       </c>
       <c r="F36" t="s">
         <v>78</v>
@@ -3030,16 +3058,16 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>250002</v>
       </c>
       <c r="D37">
-        <v>600029</v>
+        <v>600030</v>
       </c>
       <c r="E37">
-        <v>610029</v>
+        <v>610030</v>
       </c>
       <c r="F37" t="s">
         <v>78</v>
@@ -3047,16 +3075,16 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>250002</v>
       </c>
       <c r="D38">
-        <v>600030</v>
+        <v>600031</v>
       </c>
       <c r="E38">
-        <v>610030</v>
+        <v>610031</v>
       </c>
       <c r="F38" t="s">
         <v>78</v>
@@ -3064,16 +3092,16 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>250002</v>
       </c>
       <c r="D39">
-        <v>600031</v>
+        <v>600032</v>
       </c>
       <c r="E39">
-        <v>610031</v>
+        <v>610032</v>
       </c>
       <c r="F39" t="s">
         <v>78</v>
@@ -3081,33 +3109,33 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>250002</v>
+        <v>250003</v>
       </c>
       <c r="D40">
-        <v>600032</v>
+        <v>600033</v>
       </c>
       <c r="E40">
-        <v>610032</v>
+        <v>610033</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>250003</v>
       </c>
       <c r="D41">
-        <v>600033</v>
+        <v>600034</v>
       </c>
       <c r="E41">
-        <v>610033</v>
+        <v>610034</v>
       </c>
       <c r="F41" t="s">
         <v>79</v>
@@ -3115,16 +3143,16 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>250003</v>
       </c>
       <c r="D42">
-        <v>600034</v>
+        <v>600035</v>
       </c>
       <c r="E42">
-        <v>610034</v>
+        <v>610035</v>
       </c>
       <c r="F42" t="s">
         <v>79</v>
@@ -3132,16 +3160,16 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>250003</v>
       </c>
       <c r="D43">
-        <v>600035</v>
+        <v>600036</v>
       </c>
       <c r="E43">
-        <v>610035</v>
+        <v>610036</v>
       </c>
       <c r="F43" t="s">
         <v>79</v>
@@ -3149,16 +3177,16 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>250003</v>
       </c>
       <c r="D44">
-        <v>600036</v>
+        <v>600037</v>
       </c>
       <c r="E44">
-        <v>610036</v>
+        <v>610037</v>
       </c>
       <c r="F44" t="s">
         <v>79</v>
@@ -3166,16 +3194,16 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>250003</v>
       </c>
       <c r="D45">
-        <v>600037</v>
+        <v>600038</v>
       </c>
       <c r="E45">
-        <v>610037</v>
+        <v>610038</v>
       </c>
       <c r="F45" t="s">
         <v>79</v>
@@ -3183,16 +3211,16 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46">
         <v>250003</v>
       </c>
       <c r="D46">
-        <v>600038</v>
+        <v>600039</v>
       </c>
       <c r="E46">
-        <v>610038</v>
+        <v>610039</v>
       </c>
       <c r="F46" t="s">
         <v>79</v>
@@ -3200,16 +3228,16 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47">
         <v>250003</v>
       </c>
       <c r="D47">
-        <v>600039</v>
+        <v>600040</v>
       </c>
       <c r="E47">
-        <v>610039</v>
+        <v>610040</v>
       </c>
       <c r="F47" t="s">
         <v>79</v>
@@ -3217,16 +3245,16 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48">
         <v>250003</v>
       </c>
       <c r="D48">
-        <v>600040</v>
+        <v>600041</v>
       </c>
       <c r="E48">
-        <v>610040</v>
+        <v>610041</v>
       </c>
       <c r="F48" t="s">
         <v>79</v>
@@ -3234,16 +3262,16 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49">
         <v>250003</v>
       </c>
       <c r="D49">
-        <v>600041</v>
+        <v>600042</v>
       </c>
       <c r="E49">
-        <v>610041</v>
+        <v>610042</v>
       </c>
       <c r="F49" t="s">
         <v>79</v>
@@ -3251,16 +3279,16 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>250003</v>
       </c>
       <c r="D50">
-        <v>600042</v>
+        <v>600043</v>
       </c>
       <c r="E50">
-        <v>610042</v>
+        <v>610043</v>
       </c>
       <c r="F50" t="s">
         <v>79</v>
@@ -3268,16 +3296,16 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51">
         <v>250003</v>
       </c>
       <c r="D51">
-        <v>600043</v>
+        <v>600044</v>
       </c>
       <c r="E51">
-        <v>610043</v>
+        <v>610044</v>
       </c>
       <c r="F51" t="s">
         <v>79</v>
@@ -3285,16 +3313,16 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>250003</v>
       </c>
       <c r="D52">
-        <v>600044</v>
+        <v>600045</v>
       </c>
       <c r="E52">
-        <v>610044</v>
+        <v>610045</v>
       </c>
       <c r="F52" t="s">
         <v>79</v>
@@ -3302,16 +3330,16 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53">
         <v>250003</v>
       </c>
       <c r="D53">
-        <v>600045</v>
+        <v>600046</v>
       </c>
       <c r="E53">
-        <v>610045</v>
+        <v>610046</v>
       </c>
       <c r="F53" t="s">
         <v>79</v>
@@ -3319,16 +3347,16 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54">
         <v>250003</v>
       </c>
       <c r="D54">
-        <v>600046</v>
+        <v>600047</v>
       </c>
       <c r="E54">
-        <v>610046</v>
+        <v>610047</v>
       </c>
       <c r="F54" t="s">
         <v>79</v>
@@ -3336,16 +3364,16 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55">
         <v>250003</v>
       </c>
       <c r="D55">
-        <v>600047</v>
+        <v>600048</v>
       </c>
       <c r="E55">
-        <v>610047</v>
+        <v>610048</v>
       </c>
       <c r="F55" t="s">
         <v>79</v>
@@ -3353,33 +3381,33 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56">
-        <v>250003</v>
+        <v>250004</v>
       </c>
       <c r="D56">
-        <v>600048</v>
+        <v>600049</v>
       </c>
       <c r="E56">
-        <v>610048</v>
+        <v>610049</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57">
         <v>250004</v>
       </c>
       <c r="D57">
-        <v>600049</v>
+        <v>600050</v>
       </c>
       <c r="E57">
-        <v>610049</v>
+        <v>610050</v>
       </c>
       <c r="F57" t="s">
         <v>80</v>
@@ -3387,16 +3415,16 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58">
         <v>250004</v>
       </c>
       <c r="D58">
-        <v>600050</v>
+        <v>600051</v>
       </c>
       <c r="E58">
-        <v>610050</v>
+        <v>610051</v>
       </c>
       <c r="F58" t="s">
         <v>80</v>
@@ -3404,16 +3432,16 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <v>250004</v>
       </c>
       <c r="D59">
-        <v>600051</v>
+        <v>600052</v>
       </c>
       <c r="E59">
-        <v>610051</v>
+        <v>610052</v>
       </c>
       <c r="F59" t="s">
         <v>80</v>
@@ -3421,16 +3449,16 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60">
         <v>250004</v>
       </c>
       <c r="D60">
-        <v>600052</v>
+        <v>600053</v>
       </c>
       <c r="E60">
-        <v>610052</v>
+        <v>610053</v>
       </c>
       <c r="F60" t="s">
         <v>80</v>
@@ -3438,16 +3466,16 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>250004</v>
       </c>
       <c r="D61">
-        <v>600053</v>
+        <v>600054</v>
       </c>
       <c r="E61">
-        <v>610053</v>
+        <v>610054</v>
       </c>
       <c r="F61" t="s">
         <v>80</v>
@@ -3455,16 +3483,16 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62">
         <v>250004</v>
       </c>
       <c r="D62">
-        <v>600054</v>
+        <v>600055</v>
       </c>
       <c r="E62">
-        <v>610054</v>
+        <v>610055</v>
       </c>
       <c r="F62" t="s">
         <v>80</v>
@@ -3472,16 +3500,16 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63">
         <v>250004</v>
       </c>
       <c r="D63">
-        <v>600055</v>
+        <v>600056</v>
       </c>
       <c r="E63">
-        <v>610055</v>
+        <v>610056</v>
       </c>
       <c r="F63" t="s">
         <v>80</v>
@@ -3489,16 +3517,16 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>250004</v>
       </c>
       <c r="D64">
-        <v>600056</v>
+        <v>600057</v>
       </c>
       <c r="E64">
-        <v>610056</v>
+        <v>610057</v>
       </c>
       <c r="F64" t="s">
         <v>80</v>
@@ -3506,16 +3534,16 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>250004</v>
       </c>
       <c r="D65">
-        <v>600057</v>
+        <v>600058</v>
       </c>
       <c r="E65">
-        <v>610057</v>
+        <v>610058</v>
       </c>
       <c r="F65" t="s">
         <v>80</v>
@@ -3523,16 +3551,16 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>250004</v>
       </c>
       <c r="D66">
-        <v>600058</v>
+        <v>600059</v>
       </c>
       <c r="E66">
-        <v>610058</v>
+        <v>610059</v>
       </c>
       <c r="F66" t="s">
         <v>80</v>
@@ -3540,16 +3568,16 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>250004</v>
       </c>
       <c r="D67">
-        <v>600059</v>
+        <v>600060</v>
       </c>
       <c r="E67">
-        <v>610059</v>
+        <v>610060</v>
       </c>
       <c r="F67" t="s">
         <v>80</v>
@@ -3557,16 +3585,16 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <v>250004</v>
       </c>
       <c r="D68">
-        <v>600060</v>
+        <v>600061</v>
       </c>
       <c r="E68">
-        <v>610060</v>
+        <v>610061</v>
       </c>
       <c r="F68" t="s">
         <v>80</v>
@@ -3574,16 +3602,16 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>250004</v>
       </c>
       <c r="D69">
-        <v>600061</v>
+        <v>600062</v>
       </c>
       <c r="E69">
-        <v>610061</v>
+        <v>610062</v>
       </c>
       <c r="F69" t="s">
         <v>80</v>
@@ -3591,16 +3619,16 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>250004</v>
       </c>
       <c r="D70">
-        <v>600062</v>
+        <v>600063</v>
       </c>
       <c r="E70">
-        <v>610062</v>
+        <v>610063</v>
       </c>
       <c r="F70" t="s">
         <v>80</v>
@@ -3608,16 +3636,16 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71">
         <v>250004</v>
       </c>
       <c r="D71">
-        <v>600063</v>
+        <v>600064</v>
       </c>
       <c r="E71">
-        <v>610063</v>
+        <v>610064</v>
       </c>
       <c r="F71" t="s">
         <v>80</v>
@@ -3625,33 +3653,33 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72">
-        <v>250004</v>
+        <v>250005</v>
       </c>
       <c r="D72">
-        <v>600064</v>
+        <v>600065</v>
       </c>
       <c r="E72">
-        <v>610064</v>
+        <v>610065</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73">
         <v>250005</v>
       </c>
       <c r="D73">
-        <v>600065</v>
+        <v>600066</v>
       </c>
       <c r="E73">
-        <v>610065</v>
+        <v>610066</v>
       </c>
       <c r="F73" t="s">
         <v>81</v>
@@ -3659,16 +3687,16 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74">
         <v>250005</v>
       </c>
       <c r="D74">
-        <v>600066</v>
+        <v>600067</v>
       </c>
       <c r="E74">
-        <v>610066</v>
+        <v>610067</v>
       </c>
       <c r="F74" t="s">
         <v>81</v>
@@ -3676,16 +3704,16 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C75">
         <v>250005</v>
       </c>
       <c r="D75">
-        <v>600067</v>
+        <v>600068</v>
       </c>
       <c r="E75">
-        <v>610067</v>
+        <v>610068</v>
       </c>
       <c r="F75" t="s">
         <v>81</v>
@@ -3693,16 +3721,16 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C76">
         <v>250005</v>
       </c>
       <c r="D76">
-        <v>600068</v>
+        <v>600069</v>
       </c>
       <c r="E76">
-        <v>610068</v>
+        <v>610069</v>
       </c>
       <c r="F76" t="s">
         <v>81</v>
@@ -3710,16 +3738,16 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C77">
         <v>250005</v>
       </c>
       <c r="D77">
-        <v>600069</v>
+        <v>600070</v>
       </c>
       <c r="E77">
-        <v>610069</v>
+        <v>610070</v>
       </c>
       <c r="F77" t="s">
         <v>81</v>
@@ -3727,16 +3755,16 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C78">
         <v>250005</v>
       </c>
       <c r="D78">
-        <v>600070</v>
+        <v>600071</v>
       </c>
       <c r="E78">
-        <v>610070</v>
+        <v>610071</v>
       </c>
       <c r="F78" t="s">
         <v>81</v>
@@ -3744,16 +3772,16 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79">
         <v>250005</v>
       </c>
       <c r="D79">
-        <v>600071</v>
+        <v>600072</v>
       </c>
       <c r="E79">
-        <v>610071</v>
+        <v>610072</v>
       </c>
       <c r="F79" t="s">
         <v>81</v>
@@ -3761,16 +3789,16 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80">
         <v>250005</v>
       </c>
       <c r="D80">
-        <v>600072</v>
+        <v>600073</v>
       </c>
       <c r="E80">
-        <v>610072</v>
+        <v>610073</v>
       </c>
       <c r="F80" t="s">
         <v>81</v>
@@ -3778,16 +3806,16 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81">
         <v>250005</v>
       </c>
       <c r="D81">
-        <v>600073</v>
+        <v>600074</v>
       </c>
       <c r="E81">
-        <v>610073</v>
+        <v>610074</v>
       </c>
       <c r="F81" t="s">
         <v>81</v>
@@ -3795,16 +3823,16 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C82">
         <v>250005</v>
       </c>
       <c r="D82">
-        <v>600074</v>
+        <v>600075</v>
       </c>
       <c r="E82">
-        <v>610074</v>
+        <v>610075</v>
       </c>
       <c r="F82" t="s">
         <v>81</v>
@@ -3812,16 +3840,16 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83">
         <v>250005</v>
       </c>
       <c r="D83">
-        <v>600075</v>
+        <v>600076</v>
       </c>
       <c r="E83">
-        <v>610075</v>
+        <v>610076</v>
       </c>
       <c r="F83" t="s">
         <v>81</v>
@@ -3829,16 +3857,16 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C84">
         <v>250005</v>
       </c>
       <c r="D84">
-        <v>600076</v>
+        <v>600077</v>
       </c>
       <c r="E84">
-        <v>610076</v>
+        <v>610077</v>
       </c>
       <c r="F84" t="s">
         <v>81</v>
@@ -3846,16 +3874,16 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C85">
         <v>250005</v>
       </c>
       <c r="D85">
-        <v>600077</v>
+        <v>600078</v>
       </c>
       <c r="E85">
-        <v>610077</v>
+        <v>610078</v>
       </c>
       <c r="F85" t="s">
         <v>81</v>
@@ -3863,16 +3891,16 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86">
         <v>250005</v>
       </c>
       <c r="D86">
-        <v>600078</v>
+        <v>600079</v>
       </c>
       <c r="E86">
-        <v>610078</v>
+        <v>610079</v>
       </c>
       <c r="F86" t="s">
         <v>81</v>
@@ -3880,16 +3908,16 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C87">
         <v>250005</v>
       </c>
       <c r="D87">
-        <v>600079</v>
+        <v>600080</v>
       </c>
       <c r="E87">
-        <v>610079</v>
+        <v>610080</v>
       </c>
       <c r="F87" t="s">
         <v>81</v>
@@ -3897,33 +3925,33 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C88">
-        <v>250005</v>
+        <v>250006</v>
       </c>
       <c r="D88">
-        <v>600080</v>
+        <v>600081</v>
       </c>
       <c r="E88">
-        <v>610080</v>
+        <v>610081</v>
       </c>
       <c r="F88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C89">
         <v>250006</v>
       </c>
       <c r="D89">
-        <v>600081</v>
+        <v>600082</v>
       </c>
       <c r="E89">
-        <v>610081</v>
+        <v>610082</v>
       </c>
       <c r="F89" t="s">
         <v>82</v>
@@ -3931,16 +3959,16 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90">
         <v>250006</v>
       </c>
       <c r="D90">
-        <v>600082</v>
+        <v>600083</v>
       </c>
       <c r="E90">
-        <v>610082</v>
+        <v>610083</v>
       </c>
       <c r="F90" t="s">
         <v>82</v>
@@ -3948,16 +3976,16 @@
     </row>
     <row r="91" spans="2:6">
       <c r="B91">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91">
         <v>250006</v>
       </c>
       <c r="D91">
-        <v>600083</v>
+        <v>600084</v>
       </c>
       <c r="E91">
-        <v>610083</v>
+        <v>610084</v>
       </c>
       <c r="F91" t="s">
         <v>82</v>
@@ -3965,16 +3993,16 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <v>250006</v>
       </c>
       <c r="D92">
-        <v>600084</v>
+        <v>600085</v>
       </c>
       <c r="E92">
-        <v>610084</v>
+        <v>610085</v>
       </c>
       <c r="F92" t="s">
         <v>82</v>
@@ -3982,16 +4010,16 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93">
         <v>250006</v>
       </c>
       <c r="D93">
-        <v>600085</v>
+        <v>600086</v>
       </c>
       <c r="E93">
-        <v>610085</v>
+        <v>610086</v>
       </c>
       <c r="F93" t="s">
         <v>82</v>
@@ -3999,16 +4027,16 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C94">
         <v>250006</v>
       </c>
       <c r="D94">
-        <v>600086</v>
+        <v>600087</v>
       </c>
       <c r="E94">
-        <v>610086</v>
+        <v>610087</v>
       </c>
       <c r="F94" t="s">
         <v>82</v>
@@ -4016,16 +4044,16 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C95">
         <v>250006</v>
       </c>
       <c r="D95">
-        <v>600087</v>
+        <v>600088</v>
       </c>
       <c r="E95">
-        <v>610087</v>
+        <v>610088</v>
       </c>
       <c r="F95" t="s">
         <v>82</v>
@@ -4033,16 +4061,16 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C96">
         <v>250006</v>
       </c>
       <c r="D96">
-        <v>600088</v>
+        <v>600089</v>
       </c>
       <c r="E96">
-        <v>610088</v>
+        <v>610089</v>
       </c>
       <c r="F96" t="s">
         <v>82</v>
@@ -4050,16 +4078,16 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>250006</v>
       </c>
       <c r="D97">
-        <v>600089</v>
+        <v>600090</v>
       </c>
       <c r="E97">
-        <v>610089</v>
+        <v>610090</v>
       </c>
       <c r="F97" t="s">
         <v>82</v>
@@ -4067,16 +4095,16 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C98">
         <v>250006</v>
       </c>
       <c r="D98">
-        <v>600090</v>
+        <v>600091</v>
       </c>
       <c r="E98">
-        <v>610090</v>
+        <v>610091</v>
       </c>
       <c r="F98" t="s">
         <v>82</v>
@@ -4084,16 +4112,16 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99">
         <v>250006</v>
       </c>
       <c r="D99">
-        <v>600091</v>
+        <v>600092</v>
       </c>
       <c r="E99">
-        <v>610091</v>
+        <v>610092</v>
       </c>
       <c r="F99" t="s">
         <v>82</v>
@@ -4101,16 +4129,16 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C100">
         <v>250006</v>
       </c>
       <c r="D100">
-        <v>600092</v>
+        <v>600093</v>
       </c>
       <c r="E100">
-        <v>610092</v>
+        <v>610093</v>
       </c>
       <c r="F100" t="s">
         <v>82</v>
@@ -4118,16 +4146,16 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101">
         <v>250006</v>
       </c>
       <c r="D101">
-        <v>600093</v>
+        <v>600094</v>
       </c>
       <c r="E101">
-        <v>610093</v>
+        <v>610094</v>
       </c>
       <c r="F101" t="s">
         <v>82</v>
@@ -4135,16 +4163,16 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C102">
         <v>250006</v>
       </c>
       <c r="D102">
-        <v>600094</v>
+        <v>600095</v>
       </c>
       <c r="E102">
-        <v>610094</v>
+        <v>610095</v>
       </c>
       <c r="F102" t="s">
         <v>82</v>
@@ -4152,16 +4180,16 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C103">
         <v>250006</v>
       </c>
       <c r="D103">
-        <v>600095</v>
+        <v>600096</v>
       </c>
       <c r="E103">
-        <v>610095</v>
+        <v>610096</v>
       </c>
       <c r="F103" t="s">
         <v>82</v>
@@ -4169,33 +4197,33 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C104">
-        <v>250006</v>
+        <v>250007</v>
       </c>
       <c r="D104">
-        <v>600096</v>
+        <v>600097</v>
       </c>
       <c r="E104">
-        <v>610096</v>
+        <v>610097</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C105">
         <v>250007</v>
       </c>
       <c r="D105">
-        <v>600097</v>
+        <v>600098</v>
       </c>
       <c r="E105">
-        <v>610097</v>
+        <v>610098</v>
       </c>
       <c r="F105" t="s">
         <v>83</v>
@@ -4203,16 +4231,16 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C106">
         <v>250007</v>
       </c>
       <c r="D106">
-        <v>600098</v>
+        <v>600099</v>
       </c>
       <c r="E106">
-        <v>610098</v>
+        <v>610099</v>
       </c>
       <c r="F106" t="s">
         <v>83</v>
@@ -4220,16 +4248,16 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107">
         <v>250007</v>
       </c>
       <c r="D107">
-        <v>600099</v>
+        <v>600100</v>
       </c>
       <c r="E107">
-        <v>610099</v>
+        <v>610100</v>
       </c>
       <c r="F107" t="s">
         <v>83</v>
@@ -4237,16 +4265,16 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C108">
         <v>250007</v>
       </c>
       <c r="D108">
-        <v>600100</v>
+        <v>600101</v>
       </c>
       <c r="E108">
-        <v>610100</v>
+        <v>610101</v>
       </c>
       <c r="F108" t="s">
         <v>83</v>
@@ -4254,16 +4282,16 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>250007</v>
       </c>
       <c r="D109">
-        <v>600101</v>
+        <v>600102</v>
       </c>
       <c r="E109">
-        <v>610101</v>
+        <v>610102</v>
       </c>
       <c r="F109" t="s">
         <v>83</v>
@@ -4271,16 +4299,16 @@
     </row>
     <row r="110" spans="2:6">
       <c r="B110">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C110">
         <v>250007</v>
       </c>
       <c r="D110">
-        <v>600102</v>
+        <v>600103</v>
       </c>
       <c r="E110">
-        <v>610102</v>
+        <v>610103</v>
       </c>
       <c r="F110" t="s">
         <v>83</v>
@@ -4288,16 +4316,16 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111">
         <v>250007</v>
       </c>
       <c r="D111">
-        <v>600103</v>
+        <v>600104</v>
       </c>
       <c r="E111">
-        <v>610103</v>
+        <v>610104</v>
       </c>
       <c r="F111" t="s">
         <v>83</v>
@@ -4305,16 +4333,16 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112">
         <v>250007</v>
       </c>
       <c r="D112">
-        <v>600104</v>
+        <v>600105</v>
       </c>
       <c r="E112">
-        <v>610104</v>
+        <v>610105</v>
       </c>
       <c r="F112" t="s">
         <v>83</v>
@@ -4322,16 +4350,16 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113">
         <v>250007</v>
       </c>
       <c r="D113">
-        <v>600105</v>
+        <v>600106</v>
       </c>
       <c r="E113">
-        <v>610105</v>
+        <v>610106</v>
       </c>
       <c r="F113" t="s">
         <v>83</v>
@@ -4339,16 +4367,16 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114">
         <v>250007</v>
       </c>
       <c r="D114">
-        <v>600106</v>
+        <v>600107</v>
       </c>
       <c r="E114">
-        <v>610106</v>
+        <v>610107</v>
       </c>
       <c r="F114" t="s">
         <v>83</v>
@@ -4356,16 +4384,16 @@
     </row>
     <row r="115" spans="2:6">
       <c r="B115">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115">
         <v>250007</v>
       </c>
       <c r="D115">
-        <v>600107</v>
+        <v>600108</v>
       </c>
       <c r="E115">
-        <v>610107</v>
+        <v>610108</v>
       </c>
       <c r="F115" t="s">
         <v>83</v>
@@ -4373,16 +4401,16 @@
     </row>
     <row r="116" spans="2:6">
       <c r="B116">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C116">
         <v>250007</v>
       </c>
       <c r="D116">
-        <v>600108</v>
+        <v>600109</v>
       </c>
       <c r="E116">
-        <v>610108</v>
+        <v>610109</v>
       </c>
       <c r="F116" t="s">
         <v>83</v>
@@ -4390,16 +4418,16 @@
     </row>
     <row r="117" spans="2:6">
       <c r="B117">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117">
         <v>250007</v>
       </c>
       <c r="D117">
-        <v>600109</v>
+        <v>600110</v>
       </c>
       <c r="E117">
-        <v>610109</v>
+        <v>610110</v>
       </c>
       <c r="F117" t="s">
         <v>83</v>
@@ -4407,16 +4435,16 @@
     </row>
     <row r="118" spans="2:6">
       <c r="B118">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C118">
         <v>250007</v>
       </c>
       <c r="D118">
-        <v>600110</v>
+        <v>600111</v>
       </c>
       <c r="E118">
-        <v>610110</v>
+        <v>610111</v>
       </c>
       <c r="F118" t="s">
         <v>83</v>
@@ -4424,16 +4452,16 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C119">
         <v>250007</v>
       </c>
       <c r="D119">
-        <v>600111</v>
+        <v>600112</v>
       </c>
       <c r="E119">
-        <v>610111</v>
+        <v>610112</v>
       </c>
       <c r="F119" t="s">
         <v>83</v>
@@ -4441,33 +4469,33 @@
     </row>
     <row r="120" spans="2:6">
       <c r="B120">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C120">
-        <v>250007</v>
+        <v>250008</v>
       </c>
       <c r="D120">
-        <v>600112</v>
+        <v>600113</v>
       </c>
       <c r="E120">
-        <v>610112</v>
+        <v>610113</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C121">
         <v>250008</v>
       </c>
       <c r="D121">
-        <v>600113</v>
+        <v>600114</v>
       </c>
       <c r="E121">
-        <v>610113</v>
+        <v>610114</v>
       </c>
       <c r="F121" t="s">
         <v>84</v>
@@ -4475,16 +4503,16 @@
     </row>
     <row r="122" spans="2:6">
       <c r="B122">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122">
         <v>250008</v>
       </c>
       <c r="D122">
-        <v>600114</v>
+        <v>600115</v>
       </c>
       <c r="E122">
-        <v>610114</v>
+        <v>610115</v>
       </c>
       <c r="F122" t="s">
         <v>84</v>
@@ -4492,16 +4520,16 @@
     </row>
     <row r="123" spans="2:6">
       <c r="B123">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>250008</v>
       </c>
       <c r="D123">
-        <v>600115</v>
+        <v>600116</v>
       </c>
       <c r="E123">
-        <v>610115</v>
+        <v>610116</v>
       </c>
       <c r="F123" t="s">
         <v>84</v>
@@ -4509,16 +4537,16 @@
     </row>
     <row r="124" spans="2:6">
       <c r="B124">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124">
         <v>250008</v>
       </c>
       <c r="D124">
-        <v>600116</v>
+        <v>600117</v>
       </c>
       <c r="E124">
-        <v>610116</v>
+        <v>610117</v>
       </c>
       <c r="F124" t="s">
         <v>84</v>
@@ -4526,16 +4554,16 @@
     </row>
     <row r="125" spans="2:6">
       <c r="B125">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C125">
         <v>250008</v>
       </c>
       <c r="D125">
-        <v>600117</v>
+        <v>600118</v>
       </c>
       <c r="E125">
-        <v>610117</v>
+        <v>610118</v>
       </c>
       <c r="F125" t="s">
         <v>84</v>
@@ -4543,16 +4571,16 @@
     </row>
     <row r="126" spans="2:6">
       <c r="B126">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C126">
         <v>250008</v>
       </c>
       <c r="D126">
-        <v>600118</v>
+        <v>600119</v>
       </c>
       <c r="E126">
-        <v>610118</v>
+        <v>610119</v>
       </c>
       <c r="F126" t="s">
         <v>84</v>
@@ -4560,16 +4588,16 @@
     </row>
     <row r="127" spans="2:6">
       <c r="B127">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C127">
         <v>250008</v>
       </c>
       <c r="D127">
-        <v>600119</v>
+        <v>600120</v>
       </c>
       <c r="E127">
-        <v>610119</v>
+        <v>610120</v>
       </c>
       <c r="F127" t="s">
         <v>84</v>
@@ -4577,16 +4605,16 @@
     </row>
     <row r="128" spans="2:6">
       <c r="B128">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C128">
         <v>250008</v>
       </c>
       <c r="D128">
-        <v>600120</v>
+        <v>600121</v>
       </c>
       <c r="E128">
-        <v>610120</v>
+        <v>610121</v>
       </c>
       <c r="F128" t="s">
         <v>84</v>
@@ -4594,16 +4622,16 @@
     </row>
     <row r="129" spans="2:6">
       <c r="B129">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C129">
         <v>250008</v>
       </c>
       <c r="D129">
-        <v>600121</v>
+        <v>600122</v>
       </c>
       <c r="E129">
-        <v>610121</v>
+        <v>610122</v>
       </c>
       <c r="F129" t="s">
         <v>84</v>
@@ -4611,16 +4639,16 @@
     </row>
     <row r="130" spans="2:6">
       <c r="B130">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C130">
         <v>250008</v>
       </c>
       <c r="D130">
-        <v>600122</v>
+        <v>600123</v>
       </c>
       <c r="E130">
-        <v>610122</v>
+        <v>610123</v>
       </c>
       <c r="F130" t="s">
         <v>84</v>
@@ -4628,16 +4656,16 @@
     </row>
     <row r="131" spans="2:6">
       <c r="B131">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C131">
         <v>250008</v>
       </c>
       <c r="D131">
-        <v>600123</v>
+        <v>600124</v>
       </c>
       <c r="E131">
-        <v>610123</v>
+        <v>610124</v>
       </c>
       <c r="F131" t="s">
         <v>84</v>
@@ -4645,16 +4673,16 @@
     </row>
     <row r="132" spans="2:6">
       <c r="B132">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C132">
         <v>250008</v>
       </c>
       <c r="D132">
-        <v>600124</v>
+        <v>600125</v>
       </c>
       <c r="E132">
-        <v>610124</v>
+        <v>610125</v>
       </c>
       <c r="F132" t="s">
         <v>84</v>
@@ -4662,16 +4690,16 @@
     </row>
     <row r="133" spans="2:6">
       <c r="B133">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133">
         <v>250008</v>
       </c>
       <c r="D133">
-        <v>600125</v>
+        <v>600126</v>
       </c>
       <c r="E133">
-        <v>610125</v>
+        <v>610126</v>
       </c>
       <c r="F133" t="s">
         <v>84</v>
@@ -4679,16 +4707,16 @@
     </row>
     <row r="134" spans="2:6">
       <c r="B134">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C134">
         <v>250008</v>
       </c>
       <c r="D134">
-        <v>600126</v>
+        <v>600127</v>
       </c>
       <c r="E134">
-        <v>610126</v>
+        <v>610127</v>
       </c>
       <c r="F134" t="s">
         <v>84</v>
@@ -4696,16 +4724,16 @@
     </row>
     <row r="135" spans="2:6">
       <c r="B135">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C135">
         <v>250008</v>
       </c>
       <c r="D135">
-        <v>600127</v>
+        <v>600128</v>
       </c>
       <c r="E135">
-        <v>610127</v>
+        <v>610128</v>
       </c>
       <c r="F135" t="s">
         <v>84</v>
@@ -4713,33 +4741,33 @@
     </row>
     <row r="136" spans="2:6">
       <c r="B136">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C136">
-        <v>250008</v>
+        <v>250009</v>
       </c>
       <c r="D136">
-        <v>600128</v>
+        <v>600129</v>
       </c>
       <c r="E136">
-        <v>610128</v>
+        <v>610129</v>
       </c>
       <c r="F136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C137">
         <v>250009</v>
       </c>
       <c r="D137">
-        <v>600129</v>
+        <v>600130</v>
       </c>
       <c r="E137">
-        <v>610129</v>
+        <v>610130</v>
       </c>
       <c r="F137" t="s">
         <v>85</v>
@@ -4747,16 +4775,16 @@
     </row>
     <row r="138" spans="2:6">
       <c r="B138">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C138">
         <v>250009</v>
       </c>
       <c r="D138">
-        <v>600130</v>
+        <v>600131</v>
       </c>
       <c r="E138">
-        <v>610130</v>
+        <v>610131</v>
       </c>
       <c r="F138" t="s">
         <v>85</v>
@@ -4764,16 +4792,16 @@
     </row>
     <row r="139" spans="2:6">
       <c r="B139">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C139">
         <v>250009</v>
       </c>
       <c r="D139">
-        <v>600131</v>
+        <v>600132</v>
       </c>
       <c r="E139">
-        <v>610131</v>
+        <v>610132</v>
       </c>
       <c r="F139" t="s">
         <v>85</v>
@@ -4781,16 +4809,16 @@
     </row>
     <row r="140" spans="2:6">
       <c r="B140">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C140">
         <v>250009</v>
       </c>
       <c r="D140">
-        <v>600132</v>
+        <v>600133</v>
       </c>
       <c r="E140">
-        <v>610132</v>
+        <v>610133</v>
       </c>
       <c r="F140" t="s">
         <v>85</v>
@@ -4798,16 +4826,16 @@
     </row>
     <row r="141" spans="2:6">
       <c r="B141">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C141">
         <v>250009</v>
       </c>
       <c r="D141">
-        <v>600133</v>
+        <v>600134</v>
       </c>
       <c r="E141">
-        <v>610133</v>
+        <v>610134</v>
       </c>
       <c r="F141" t="s">
         <v>85</v>
@@ -4815,16 +4843,16 @@
     </row>
     <row r="142" spans="2:6">
       <c r="B142">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C142">
         <v>250009</v>
       </c>
       <c r="D142">
-        <v>600134</v>
+        <v>600135</v>
       </c>
       <c r="E142">
-        <v>610134</v>
+        <v>610135</v>
       </c>
       <c r="F142" t="s">
         <v>85</v>
@@ -4832,16 +4860,16 @@
     </row>
     <row r="143" spans="2:6">
       <c r="B143">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C143">
         <v>250009</v>
       </c>
       <c r="D143">
-        <v>600135</v>
+        <v>600136</v>
       </c>
       <c r="E143">
-        <v>610135</v>
+        <v>610136</v>
       </c>
       <c r="F143" t="s">
         <v>85</v>
@@ -4849,16 +4877,16 @@
     </row>
     <row r="144" spans="2:6">
       <c r="B144">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C144">
         <v>250009</v>
       </c>
       <c r="D144">
-        <v>600136</v>
+        <v>600137</v>
       </c>
       <c r="E144">
-        <v>610136</v>
+        <v>610137</v>
       </c>
       <c r="F144" t="s">
         <v>85</v>
@@ -4866,16 +4894,16 @@
     </row>
     <row r="145" spans="2:6">
       <c r="B145">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C145">
         <v>250009</v>
       </c>
       <c r="D145">
-        <v>600137</v>
+        <v>600138</v>
       </c>
       <c r="E145">
-        <v>610137</v>
+        <v>610138</v>
       </c>
       <c r="F145" t="s">
         <v>85</v>
@@ -4883,16 +4911,16 @@
     </row>
     <row r="146" spans="2:6">
       <c r="B146">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146">
         <v>250009</v>
       </c>
       <c r="D146">
-        <v>600138</v>
+        <v>600139</v>
       </c>
       <c r="E146">
-        <v>610138</v>
+        <v>610139</v>
       </c>
       <c r="F146" t="s">
         <v>85</v>
@@ -4900,16 +4928,16 @@
     </row>
     <row r="147" spans="2:6">
       <c r="B147">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C147">
         <v>250009</v>
       </c>
       <c r="D147">
-        <v>600139</v>
+        <v>600140</v>
       </c>
       <c r="E147">
-        <v>610139</v>
+        <v>610140</v>
       </c>
       <c r="F147" t="s">
         <v>85</v>
@@ -4917,16 +4945,16 @@
     </row>
     <row r="148" spans="2:6">
       <c r="B148">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148">
         <v>250009</v>
       </c>
       <c r="D148">
-        <v>600140</v>
+        <v>600141</v>
       </c>
       <c r="E148">
-        <v>610140</v>
+        <v>610141</v>
       </c>
       <c r="F148" t="s">
         <v>85</v>
@@ -4934,16 +4962,16 @@
     </row>
     <row r="149" spans="2:6">
       <c r="B149">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C149">
         <v>250009</v>
       </c>
       <c r="D149">
-        <v>600141</v>
+        <v>600142</v>
       </c>
       <c r="E149">
-        <v>610141</v>
+        <v>610142</v>
       </c>
       <c r="F149" t="s">
         <v>85</v>
@@ -4951,16 +4979,16 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C150">
         <v>250009</v>
       </c>
       <c r="D150">
-        <v>600142</v>
+        <v>600143</v>
       </c>
       <c r="E150">
-        <v>610142</v>
+        <v>610143</v>
       </c>
       <c r="F150" t="s">
         <v>85</v>
@@ -4968,16 +4996,16 @@
     </row>
     <row r="151" spans="2:6">
       <c r="B151">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151">
         <v>250009</v>
       </c>
       <c r="D151">
-        <v>600143</v>
+        <v>600144</v>
       </c>
       <c r="E151">
-        <v>610143</v>
+        <v>610144</v>
       </c>
       <c r="F151" t="s">
         <v>85</v>
@@ -4985,33 +5013,33 @@
     </row>
     <row r="152" spans="2:6">
       <c r="B152">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152">
-        <v>250009</v>
+        <v>250010</v>
       </c>
       <c r="D152">
-        <v>600144</v>
+        <v>600145</v>
       </c>
       <c r="E152">
-        <v>610144</v>
+        <v>610145</v>
       </c>
       <c r="F152" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C153">
         <v>250010</v>
       </c>
       <c r="D153">
-        <v>600145</v>
+        <v>600146</v>
       </c>
       <c r="E153">
-        <v>610145</v>
+        <v>610146</v>
       </c>
       <c r="F153" t="s">
         <v>86</v>
@@ -5019,16 +5047,16 @@
     </row>
     <row r="154" spans="2:6">
       <c r="B154">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154">
         <v>250010</v>
       </c>
       <c r="D154">
-        <v>600146</v>
+        <v>600147</v>
       </c>
       <c r="E154">
-        <v>610146</v>
+        <v>610147</v>
       </c>
       <c r="F154" t="s">
         <v>86</v>
@@ -5036,16 +5064,16 @@
     </row>
     <row r="155" spans="2:6">
       <c r="B155">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C155">
         <v>250010</v>
       </c>
       <c r="D155">
-        <v>600147</v>
+        <v>600148</v>
       </c>
       <c r="E155">
-        <v>610147</v>
+        <v>610148</v>
       </c>
       <c r="F155" t="s">
         <v>86</v>
@@ -5053,16 +5081,16 @@
     </row>
     <row r="156" spans="2:6">
       <c r="B156">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C156">
         <v>250010</v>
       </c>
       <c r="D156">
-        <v>600148</v>
+        <v>600149</v>
       </c>
       <c r="E156">
-        <v>610148</v>
+        <v>610149</v>
       </c>
       <c r="F156" t="s">
         <v>86</v>
@@ -5070,16 +5098,16 @@
     </row>
     <row r="157" spans="2:6">
       <c r="B157">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C157">
         <v>250010</v>
       </c>
       <c r="D157">
-        <v>600149</v>
+        <v>600150</v>
       </c>
       <c r="E157">
-        <v>610149</v>
+        <v>610150</v>
       </c>
       <c r="F157" t="s">
         <v>86</v>
@@ -5087,16 +5115,16 @@
     </row>
     <row r="158" spans="2:6">
       <c r="B158">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C158">
         <v>250010</v>
       </c>
       <c r="D158">
-        <v>600150</v>
+        <v>600151</v>
       </c>
       <c r="E158">
-        <v>610150</v>
+        <v>610151</v>
       </c>
       <c r="F158" t="s">
         <v>86</v>
@@ -5104,16 +5132,16 @@
     </row>
     <row r="159" spans="2:6">
       <c r="B159">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C159">
         <v>250010</v>
       </c>
       <c r="D159">
-        <v>600151</v>
+        <v>600152</v>
       </c>
       <c r="E159">
-        <v>610151</v>
+        <v>610152</v>
       </c>
       <c r="F159" t="s">
         <v>86</v>
@@ -5121,16 +5149,16 @@
     </row>
     <row r="160" spans="2:6">
       <c r="B160">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C160">
         <v>250010</v>
       </c>
       <c r="D160">
-        <v>600152</v>
+        <v>600153</v>
       </c>
       <c r="E160">
-        <v>610152</v>
+        <v>610153</v>
       </c>
       <c r="F160" t="s">
         <v>86</v>
@@ -5138,16 +5166,16 @@
     </row>
     <row r="161" spans="2:6">
       <c r="B161">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C161">
         <v>250010</v>
       </c>
       <c r="D161">
-        <v>600153</v>
+        <v>600154</v>
       </c>
       <c r="E161">
-        <v>610153</v>
+        <v>610154</v>
       </c>
       <c r="F161" t="s">
         <v>86</v>
@@ -5155,16 +5183,16 @@
     </row>
     <row r="162" spans="2:6">
       <c r="B162">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C162">
         <v>250010</v>
       </c>
       <c r="D162">
-        <v>600154</v>
+        <v>600155</v>
       </c>
       <c r="E162">
-        <v>610154</v>
+        <v>610155</v>
       </c>
       <c r="F162" t="s">
         <v>86</v>
@@ -5172,16 +5200,16 @@
     </row>
     <row r="163" spans="2:6">
       <c r="B163">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C163">
         <v>250010</v>
       </c>
       <c r="D163">
-        <v>600155</v>
+        <v>600156</v>
       </c>
       <c r="E163">
-        <v>610155</v>
+        <v>610156</v>
       </c>
       <c r="F163" t="s">
         <v>86</v>
@@ -5189,16 +5217,16 @@
     </row>
     <row r="164" spans="2:6">
       <c r="B164">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C164">
         <v>250010</v>
       </c>
       <c r="D164">
-        <v>600156</v>
+        <v>600157</v>
       </c>
       <c r="E164">
-        <v>610156</v>
+        <v>610157</v>
       </c>
       <c r="F164" t="s">
         <v>86</v>
@@ -5206,16 +5234,16 @@
     </row>
     <row r="165" spans="2:6">
       <c r="B165">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C165">
         <v>250010</v>
       </c>
       <c r="D165">
-        <v>600157</v>
+        <v>600158</v>
       </c>
       <c r="E165">
-        <v>610157</v>
+        <v>610158</v>
       </c>
       <c r="F165" t="s">
         <v>86</v>
@@ -5223,16 +5251,16 @@
     </row>
     <row r="166" spans="2:6">
       <c r="B166">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C166">
         <v>250010</v>
       </c>
       <c r="D166">
-        <v>600158</v>
+        <v>600159</v>
       </c>
       <c r="E166">
-        <v>610158</v>
+        <v>610159</v>
       </c>
       <c r="F166" t="s">
         <v>86</v>
@@ -5240,16 +5268,16 @@
     </row>
     <row r="167" spans="2:6">
       <c r="B167">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C167">
         <v>250010</v>
       </c>
       <c r="D167">
-        <v>600159</v>
+        <v>600160</v>
       </c>
       <c r="E167">
-        <v>610159</v>
+        <v>610160</v>
       </c>
       <c r="F167" t="s">
         <v>86</v>
@@ -5257,33 +5285,33 @@
     </row>
     <row r="168" spans="2:6">
       <c r="B168">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C168">
-        <v>250010</v>
+        <v>250011</v>
       </c>
       <c r="D168">
-        <v>600160</v>
+        <v>600161</v>
       </c>
       <c r="E168">
-        <v>610160</v>
+        <v>610161</v>
       </c>
       <c r="F168" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C169">
         <v>250011</v>
       </c>
       <c r="D169">
-        <v>600161</v>
+        <v>600162</v>
       </c>
       <c r="E169">
-        <v>610161</v>
+        <v>610162</v>
       </c>
       <c r="F169" t="s">
         <v>87</v>
@@ -5291,16 +5319,16 @@
     </row>
     <row r="170" spans="2:6">
       <c r="B170">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C170">
         <v>250011</v>
       </c>
       <c r="D170">
-        <v>600162</v>
+        <v>600163</v>
       </c>
       <c r="E170">
-        <v>610162</v>
+        <v>610163</v>
       </c>
       <c r="F170" t="s">
         <v>87</v>
@@ -5308,16 +5336,16 @@
     </row>
     <row r="171" spans="2:6">
       <c r="B171">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C171">
         <v>250011</v>
       </c>
       <c r="D171">
-        <v>600163</v>
+        <v>600164</v>
       </c>
       <c r="E171">
-        <v>610163</v>
+        <v>610164</v>
       </c>
       <c r="F171" t="s">
         <v>87</v>
@@ -5325,16 +5353,16 @@
     </row>
     <row r="172" spans="2:6">
       <c r="B172">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C172">
         <v>250011</v>
       </c>
       <c r="D172">
-        <v>600164</v>
+        <v>600165</v>
       </c>
       <c r="E172">
-        <v>610164</v>
+        <v>610165</v>
       </c>
       <c r="F172" t="s">
         <v>87</v>
@@ -5342,16 +5370,16 @@
     </row>
     <row r="173" spans="2:6">
       <c r="B173">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C173">
         <v>250011</v>
       </c>
       <c r="D173">
-        <v>600165</v>
+        <v>600166</v>
       </c>
       <c r="E173">
-        <v>610165</v>
+        <v>610166</v>
       </c>
       <c r="F173" t="s">
         <v>87</v>
@@ -5359,16 +5387,16 @@
     </row>
     <row r="174" spans="2:6">
       <c r="B174">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C174">
         <v>250011</v>
       </c>
       <c r="D174">
-        <v>600166</v>
+        <v>600167</v>
       </c>
       <c r="E174">
-        <v>610166</v>
+        <v>610167</v>
       </c>
       <c r="F174" t="s">
         <v>87</v>
@@ -5376,16 +5404,16 @@
     </row>
     <row r="175" spans="2:6">
       <c r="B175">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C175">
         <v>250011</v>
       </c>
       <c r="D175">
-        <v>600167</v>
+        <v>600168</v>
       </c>
       <c r="E175">
-        <v>610167</v>
+        <v>610168</v>
       </c>
       <c r="F175" t="s">
         <v>87</v>
@@ -5393,16 +5421,16 @@
     </row>
     <row r="176" spans="2:6">
       <c r="B176">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C176">
         <v>250011</v>
       </c>
       <c r="D176">
-        <v>600168</v>
+        <v>600169</v>
       </c>
       <c r="E176">
-        <v>610168</v>
+        <v>610169</v>
       </c>
       <c r="F176" t="s">
         <v>87</v>
@@ -5410,16 +5438,16 @@
     </row>
     <row r="177" spans="2:6">
       <c r="B177">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C177">
         <v>250011</v>
       </c>
       <c r="D177">
-        <v>600169</v>
+        <v>600170</v>
       </c>
       <c r="E177">
-        <v>610169</v>
+        <v>610170</v>
       </c>
       <c r="F177" t="s">
         <v>87</v>
@@ -5427,16 +5455,16 @@
     </row>
     <row r="178" spans="2:6">
       <c r="B178">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C178">
         <v>250011</v>
       </c>
       <c r="D178">
-        <v>600170</v>
+        <v>600171</v>
       </c>
       <c r="E178">
-        <v>610170</v>
+        <v>610171</v>
       </c>
       <c r="F178" t="s">
         <v>87</v>
@@ -5444,16 +5472,16 @@
     </row>
     <row r="179" spans="2:6">
       <c r="B179">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C179">
         <v>250011</v>
       </c>
       <c r="D179">
-        <v>600171</v>
+        <v>600172</v>
       </c>
       <c r="E179">
-        <v>610171</v>
+        <v>610172</v>
       </c>
       <c r="F179" t="s">
         <v>87</v>
@@ -5461,16 +5489,16 @@
     </row>
     <row r="180" spans="2:6">
       <c r="B180">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C180">
         <v>250011</v>
       </c>
       <c r="D180">
-        <v>600172</v>
+        <v>600173</v>
       </c>
       <c r="E180">
-        <v>610172</v>
+        <v>610173</v>
       </c>
       <c r="F180" t="s">
         <v>87</v>
@@ -5478,16 +5506,16 @@
     </row>
     <row r="181" spans="2:6">
       <c r="B181">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C181">
         <v>250011</v>
       </c>
       <c r="D181">
-        <v>600173</v>
+        <v>600174</v>
       </c>
       <c r="E181">
-        <v>610173</v>
+        <v>610174</v>
       </c>
       <c r="F181" t="s">
         <v>87</v>
@@ -5495,16 +5523,16 @@
     </row>
     <row r="182" spans="2:6">
       <c r="B182">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C182">
         <v>250011</v>
       </c>
       <c r="D182">
-        <v>600174</v>
+        <v>600175</v>
       </c>
       <c r="E182">
-        <v>610174</v>
+        <v>610175</v>
       </c>
       <c r="F182" t="s">
         <v>87</v>
@@ -5512,16 +5540,16 @@
     </row>
     <row r="183" spans="2:6">
       <c r="B183">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C183">
         <v>250011</v>
       </c>
       <c r="D183">
-        <v>600175</v>
+        <v>600176</v>
       </c>
       <c r="E183">
-        <v>610175</v>
+        <v>610176</v>
       </c>
       <c r="F183" t="s">
         <v>87</v>
@@ -5529,33 +5557,33 @@
     </row>
     <row r="184" spans="2:6">
       <c r="B184">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C184">
-        <v>250011</v>
+        <v>250012</v>
       </c>
       <c r="D184">
-        <v>600176</v>
+        <v>600177</v>
       </c>
       <c r="E184">
-        <v>610176</v>
+        <v>610177</v>
       </c>
       <c r="F184" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185" spans="2:6">
       <c r="B185">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C185">
         <v>250012</v>
       </c>
       <c r="D185">
-        <v>600177</v>
+        <v>600178</v>
       </c>
       <c r="E185">
-        <v>610177</v>
+        <v>610178</v>
       </c>
       <c r="F185" t="s">
         <v>88</v>
@@ -5563,16 +5591,16 @@
     </row>
     <row r="186" spans="2:6">
       <c r="B186">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C186">
         <v>250012</v>
       </c>
       <c r="D186">
-        <v>600178</v>
+        <v>600179</v>
       </c>
       <c r="E186">
-        <v>610178</v>
+        <v>610179</v>
       </c>
       <c r="F186" t="s">
         <v>88</v>
@@ -5580,16 +5608,16 @@
     </row>
     <row r="187" spans="2:6">
       <c r="B187">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C187">
         <v>250012</v>
       </c>
       <c r="D187">
-        <v>600179</v>
+        <v>600180</v>
       </c>
       <c r="E187">
-        <v>610179</v>
+        <v>610180</v>
       </c>
       <c r="F187" t="s">
         <v>88</v>
@@ -5597,16 +5625,16 @@
     </row>
     <row r="188" spans="2:6">
       <c r="B188">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188">
         <v>250012</v>
       </c>
       <c r="D188">
-        <v>600180</v>
+        <v>600181</v>
       </c>
       <c r="E188">
-        <v>610180</v>
+        <v>610181</v>
       </c>
       <c r="F188" t="s">
         <v>88</v>
@@ -5614,16 +5642,16 @@
     </row>
     <row r="189" spans="2:6">
       <c r="B189">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C189">
         <v>250012</v>
       </c>
       <c r="D189">
-        <v>600181</v>
+        <v>600182</v>
       </c>
       <c r="E189">
-        <v>610181</v>
+        <v>610182</v>
       </c>
       <c r="F189" t="s">
         <v>88</v>
@@ -5631,16 +5659,16 @@
     </row>
     <row r="190" spans="2:6">
       <c r="B190">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C190">
         <v>250012</v>
       </c>
       <c r="D190">
-        <v>600182</v>
+        <v>600183</v>
       </c>
       <c r="E190">
-        <v>610182</v>
+        <v>610183</v>
       </c>
       <c r="F190" t="s">
         <v>88</v>
@@ -5648,16 +5676,16 @@
     </row>
     <row r="191" spans="2:6">
       <c r="B191">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C191">
         <v>250012</v>
       </c>
       <c r="D191">
-        <v>600183</v>
+        <v>600184</v>
       </c>
       <c r="E191">
-        <v>610183</v>
+        <v>610184</v>
       </c>
       <c r="F191" t="s">
         <v>88</v>
@@ -5665,16 +5693,16 @@
     </row>
     <row r="192" spans="2:6">
       <c r="B192">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192">
         <v>250012</v>
       </c>
       <c r="D192">
-        <v>600184</v>
+        <v>600185</v>
       </c>
       <c r="E192">
-        <v>610184</v>
+        <v>610185</v>
       </c>
       <c r="F192" t="s">
         <v>88</v>
@@ -5682,16 +5710,16 @@
     </row>
     <row r="193" spans="2:6">
       <c r="B193">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C193">
         <v>250012</v>
       </c>
       <c r="D193">
-        <v>600185</v>
+        <v>600186</v>
       </c>
       <c r="E193">
-        <v>610185</v>
+        <v>610186</v>
       </c>
       <c r="F193" t="s">
         <v>88</v>
@@ -5699,16 +5727,16 @@
     </row>
     <row r="194" spans="2:6">
       <c r="B194">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C194">
         <v>250012</v>
       </c>
       <c r="D194">
-        <v>600186</v>
+        <v>600187</v>
       </c>
       <c r="E194">
-        <v>610186</v>
+        <v>610187</v>
       </c>
       <c r="F194" t="s">
         <v>88</v>
@@ -5716,16 +5744,16 @@
     </row>
     <row r="195" spans="2:6">
       <c r="B195">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C195">
         <v>250012</v>
       </c>
       <c r="D195">
-        <v>600187</v>
+        <v>600188</v>
       </c>
       <c r="E195">
-        <v>610187</v>
+        <v>610188</v>
       </c>
       <c r="F195" t="s">
         <v>88</v>
@@ -5733,16 +5761,16 @@
     </row>
     <row r="196" spans="2:6">
       <c r="B196">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C196">
         <v>250012</v>
       </c>
       <c r="D196">
-        <v>600188</v>
+        <v>600189</v>
       </c>
       <c r="E196">
-        <v>610188</v>
+        <v>610189</v>
       </c>
       <c r="F196" t="s">
         <v>88</v>
@@ -5750,16 +5778,16 @@
     </row>
     <row r="197" spans="2:6">
       <c r="B197">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C197">
         <v>250012</v>
       </c>
       <c r="D197">
-        <v>600189</v>
+        <v>600190</v>
       </c>
       <c r="E197">
-        <v>610189</v>
+        <v>610190</v>
       </c>
       <c r="F197" t="s">
         <v>88</v>
@@ -5767,16 +5795,16 @@
     </row>
     <row r="198" spans="2:6">
       <c r="B198">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C198">
         <v>250012</v>
       </c>
       <c r="D198">
-        <v>600190</v>
+        <v>600191</v>
       </c>
       <c r="E198">
-        <v>610190</v>
+        <v>610191</v>
       </c>
       <c r="F198" t="s">
         <v>88</v>
@@ -5784,16 +5812,16 @@
     </row>
     <row r="199" spans="2:6">
       <c r="B199">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C199">
         <v>250012</v>
       </c>
       <c r="D199">
-        <v>600191</v>
+        <v>600192</v>
       </c>
       <c r="E199">
-        <v>610191</v>
+        <v>610192</v>
       </c>
       <c r="F199" t="s">
         <v>88</v>
@@ -5801,33 +5829,33 @@
     </row>
     <row r="200" spans="2:6">
       <c r="B200">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C200">
-        <v>250012</v>
+        <v>250013</v>
       </c>
       <c r="D200">
-        <v>600192</v>
+        <v>600193</v>
       </c>
       <c r="E200">
-        <v>610192</v>
+        <v>610193</v>
       </c>
       <c r="F200" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="2:6">
       <c r="B201">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C201">
         <v>250013</v>
       </c>
       <c r="D201">
-        <v>600193</v>
+        <v>600194</v>
       </c>
       <c r="E201">
-        <v>610193</v>
+        <v>610194</v>
       </c>
       <c r="F201" t="s">
         <v>89</v>
@@ -5835,16 +5863,16 @@
     </row>
     <row r="202" spans="2:6">
       <c r="B202">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C202">
         <v>250013</v>
       </c>
       <c r="D202">
-        <v>600194</v>
+        <v>600195</v>
       </c>
       <c r="E202">
-        <v>610194</v>
+        <v>610195</v>
       </c>
       <c r="F202" t="s">
         <v>89</v>
@@ -5852,16 +5880,16 @@
     </row>
     <row r="203" spans="2:6">
       <c r="B203">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C203">
         <v>250013</v>
       </c>
       <c r="D203">
-        <v>600195</v>
+        <v>600196</v>
       </c>
       <c r="E203">
-        <v>610195</v>
+        <v>610196</v>
       </c>
       <c r="F203" t="s">
         <v>89</v>
@@ -5869,16 +5897,16 @@
     </row>
     <row r="204" spans="2:6">
       <c r="B204">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C204">
         <v>250013</v>
       </c>
       <c r="D204">
-        <v>600196</v>
+        <v>600197</v>
       </c>
       <c r="E204">
-        <v>610196</v>
+        <v>610197</v>
       </c>
       <c r="F204" t="s">
         <v>89</v>
@@ -5886,16 +5914,16 @@
     </row>
     <row r="205" spans="2:6">
       <c r="B205">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C205">
         <v>250013</v>
       </c>
       <c r="D205">
-        <v>600197</v>
+        <v>600198</v>
       </c>
       <c r="E205">
-        <v>610197</v>
+        <v>610198</v>
       </c>
       <c r="F205" t="s">
         <v>89</v>
@@ -5903,16 +5931,16 @@
     </row>
     <row r="206" spans="2:6">
       <c r="B206">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C206">
         <v>250013</v>
       </c>
       <c r="D206">
-        <v>600198</v>
+        <v>600199</v>
       </c>
       <c r="E206">
-        <v>610198</v>
+        <v>610199</v>
       </c>
       <c r="F206" t="s">
         <v>89</v>
@@ -5920,16 +5948,16 @@
     </row>
     <row r="207" spans="2:6">
       <c r="B207">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C207">
         <v>250013</v>
       </c>
       <c r="D207">
-        <v>600199</v>
+        <v>600200</v>
       </c>
       <c r="E207">
-        <v>610199</v>
+        <v>610200</v>
       </c>
       <c r="F207" t="s">
         <v>89</v>
@@ -5937,16 +5965,16 @@
     </row>
     <row r="208" spans="2:6">
       <c r="B208">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C208">
         <v>250013</v>
       </c>
       <c r="D208">
-        <v>600200</v>
+        <v>600201</v>
       </c>
       <c r="E208">
-        <v>610200</v>
+        <v>610201</v>
       </c>
       <c r="F208" t="s">
         <v>89</v>
@@ -5954,16 +5982,16 @@
     </row>
     <row r="209" spans="2:6">
       <c r="B209">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C209">
         <v>250013</v>
       </c>
       <c r="D209">
-        <v>600201</v>
+        <v>600202</v>
       </c>
       <c r="E209">
-        <v>610201</v>
+        <v>610202</v>
       </c>
       <c r="F209" t="s">
         <v>89</v>
@@ -5971,16 +5999,16 @@
     </row>
     <row r="210" spans="2:6">
       <c r="B210">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C210">
         <v>250013</v>
       </c>
       <c r="D210">
-        <v>600202</v>
+        <v>600203</v>
       </c>
       <c r="E210">
-        <v>610202</v>
+        <v>610203</v>
       </c>
       <c r="F210" t="s">
         <v>89</v>
@@ -5988,16 +6016,16 @@
     </row>
     <row r="211" spans="2:6">
       <c r="B211">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C211">
         <v>250013</v>
       </c>
       <c r="D211">
-        <v>600203</v>
+        <v>600204</v>
       </c>
       <c r="E211">
-        <v>610203</v>
+        <v>610204</v>
       </c>
       <c r="F211" t="s">
         <v>89</v>
@@ -6005,16 +6033,16 @@
     </row>
     <row r="212" spans="2:6">
       <c r="B212">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C212">
         <v>250013</v>
       </c>
       <c r="D212">
-        <v>600204</v>
+        <v>600205</v>
       </c>
       <c r="E212">
-        <v>610204</v>
+        <v>610205</v>
       </c>
       <c r="F212" t="s">
         <v>89</v>
@@ -6022,16 +6050,16 @@
     </row>
     <row r="213" spans="2:6">
       <c r="B213">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C213">
         <v>250013</v>
       </c>
       <c r="D213">
-        <v>600205</v>
+        <v>600206</v>
       </c>
       <c r="E213">
-        <v>610205</v>
+        <v>610206</v>
       </c>
       <c r="F213" t="s">
         <v>89</v>
@@ -6039,16 +6067,16 @@
     </row>
     <row r="214" spans="2:6">
       <c r="B214">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C214">
         <v>250013</v>
       </c>
       <c r="D214">
-        <v>600206</v>
+        <v>600207</v>
       </c>
       <c r="E214">
-        <v>610206</v>
+        <v>610207</v>
       </c>
       <c r="F214" t="s">
         <v>89</v>
@@ -6056,16 +6084,16 @@
     </row>
     <row r="215" spans="2:6">
       <c r="B215">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C215">
         <v>250013</v>
       </c>
       <c r="D215">
-        <v>600207</v>
+        <v>600208</v>
       </c>
       <c r="E215">
-        <v>610207</v>
+        <v>610208</v>
       </c>
       <c r="F215" t="s">
         <v>89</v>
@@ -6073,33 +6101,33 @@
     </row>
     <row r="216" spans="2:6">
       <c r="B216">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C216">
-        <v>250013</v>
+        <v>250014</v>
       </c>
       <c r="D216">
-        <v>600208</v>
+        <v>600209</v>
       </c>
       <c r="E216">
-        <v>610208</v>
+        <v>610209</v>
       </c>
       <c r="F216" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="2:6">
       <c r="B217">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C217">
         <v>250014</v>
       </c>
       <c r="D217">
-        <v>600209</v>
+        <v>600210</v>
       </c>
       <c r="E217">
-        <v>610209</v>
+        <v>610210</v>
       </c>
       <c r="F217" t="s">
         <v>90</v>
@@ -6107,16 +6135,16 @@
     </row>
     <row r="218" spans="2:6">
       <c r="B218">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C218">
         <v>250014</v>
       </c>
       <c r="D218">
-        <v>600210</v>
+        <v>600211</v>
       </c>
       <c r="E218">
-        <v>610210</v>
+        <v>610211</v>
       </c>
       <c r="F218" t="s">
         <v>90</v>
@@ -6124,16 +6152,16 @@
     </row>
     <row r="219" spans="2:6">
       <c r="B219">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C219">
         <v>250014</v>
       </c>
       <c r="D219">
-        <v>600211</v>
+        <v>600212</v>
       </c>
       <c r="E219">
-        <v>610211</v>
+        <v>610212</v>
       </c>
       <c r="F219" t="s">
         <v>90</v>
@@ -6141,16 +6169,16 @@
     </row>
     <row r="220" spans="2:6">
       <c r="B220">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C220">
         <v>250014</v>
       </c>
       <c r="D220">
-        <v>600212</v>
+        <v>600213</v>
       </c>
       <c r="E220">
-        <v>610212</v>
+        <v>610213</v>
       </c>
       <c r="F220" t="s">
         <v>90</v>
@@ -6158,16 +6186,16 @@
     </row>
     <row r="221" spans="2:6">
       <c r="B221">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C221">
         <v>250014</v>
       </c>
       <c r="D221">
-        <v>600213</v>
+        <v>600214</v>
       </c>
       <c r="E221">
-        <v>610213</v>
+        <v>610214</v>
       </c>
       <c r="F221" t="s">
         <v>90</v>
@@ -6175,16 +6203,16 @@
     </row>
     <row r="222" spans="2:6">
       <c r="B222">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C222">
         <v>250014</v>
       </c>
       <c r="D222">
-        <v>600214</v>
+        <v>600215</v>
       </c>
       <c r="E222">
-        <v>610214</v>
+        <v>610215</v>
       </c>
       <c r="F222" t="s">
         <v>90</v>
@@ -6192,16 +6220,16 @@
     </row>
     <row r="223" spans="2:6">
       <c r="B223">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C223">
         <v>250014</v>
       </c>
       <c r="D223">
-        <v>600215</v>
+        <v>600216</v>
       </c>
       <c r="E223">
-        <v>610215</v>
+        <v>610216</v>
       </c>
       <c r="F223" t="s">
         <v>90</v>
@@ -6209,16 +6237,16 @@
     </row>
     <row r="224" spans="2:6">
       <c r="B224">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C224">
         <v>250014</v>
       </c>
       <c r="D224">
-        <v>600216</v>
+        <v>600217</v>
       </c>
       <c r="E224">
-        <v>610216</v>
+        <v>610217</v>
       </c>
       <c r="F224" t="s">
         <v>90</v>
@@ -6226,16 +6254,16 @@
     </row>
     <row r="225" spans="2:6">
       <c r="B225">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C225">
         <v>250014</v>
       </c>
       <c r="D225">
-        <v>600217</v>
+        <v>600218</v>
       </c>
       <c r="E225">
-        <v>610217</v>
+        <v>610218</v>
       </c>
       <c r="F225" t="s">
         <v>90</v>
@@ -6243,16 +6271,16 @@
     </row>
     <row r="226" spans="2:6">
       <c r="B226">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C226">
         <v>250014</v>
       </c>
       <c r="D226">
-        <v>600218</v>
+        <v>600219</v>
       </c>
       <c r="E226">
-        <v>610218</v>
+        <v>610219</v>
       </c>
       <c r="F226" t="s">
         <v>90</v>
@@ -6260,16 +6288,16 @@
     </row>
     <row r="227" spans="2:6">
       <c r="B227">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C227">
         <v>250014</v>
       </c>
       <c r="D227">
-        <v>600219</v>
+        <v>600220</v>
       </c>
       <c r="E227">
-        <v>610219</v>
+        <v>610220</v>
       </c>
       <c r="F227" t="s">
         <v>90</v>
@@ -6277,16 +6305,16 @@
     </row>
     <row r="228" spans="2:6">
       <c r="B228">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C228">
         <v>250014</v>
       </c>
       <c r="D228">
-        <v>600220</v>
+        <v>600221</v>
       </c>
       <c r="E228">
-        <v>610220</v>
+        <v>610221</v>
       </c>
       <c r="F228" t="s">
         <v>90</v>
@@ -6294,16 +6322,16 @@
     </row>
     <row r="229" spans="2:6">
       <c r="B229">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C229">
         <v>250014</v>
       </c>
       <c r="D229">
-        <v>600221</v>
+        <v>600222</v>
       </c>
       <c r="E229">
-        <v>610221</v>
+        <v>610222</v>
       </c>
       <c r="F229" t="s">
         <v>90</v>
@@ -6311,16 +6339,16 @@
     </row>
     <row r="230" spans="2:6">
       <c r="B230">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C230">
         <v>250014</v>
       </c>
       <c r="D230">
-        <v>600222</v>
+        <v>600223</v>
       </c>
       <c r="E230">
-        <v>610222</v>
+        <v>610223</v>
       </c>
       <c r="F230" t="s">
         <v>90</v>
@@ -6328,16 +6356,16 @@
     </row>
     <row r="231" spans="2:6">
       <c r="B231">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C231">
         <v>250014</v>
       </c>
       <c r="D231">
-        <v>600223</v>
+        <v>600224</v>
       </c>
       <c r="E231">
-        <v>610223</v>
+        <v>610224</v>
       </c>
       <c r="F231" t="s">
         <v>90</v>
@@ -6345,33 +6373,33 @@
     </row>
     <row r="232" spans="2:6">
       <c r="B232">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C232">
-        <v>250014</v>
+        <v>250015</v>
       </c>
       <c r="D232">
-        <v>600224</v>
+        <v>600225</v>
       </c>
       <c r="E232">
-        <v>610224</v>
+        <v>610225</v>
       </c>
       <c r="F232" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="233" spans="2:6">
       <c r="B233">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C233">
         <v>250015</v>
       </c>
       <c r="D233">
-        <v>600225</v>
+        <v>600226</v>
       </c>
       <c r="E233">
-        <v>610225</v>
+        <v>610226</v>
       </c>
       <c r="F233" t="s">
         <v>91</v>
@@ -6379,16 +6407,16 @@
     </row>
     <row r="234" spans="2:6">
       <c r="B234">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C234">
         <v>250015</v>
       </c>
       <c r="D234">
-        <v>600226</v>
+        <v>600227</v>
       </c>
       <c r="E234">
-        <v>610226</v>
+        <v>610227</v>
       </c>
       <c r="F234" t="s">
         <v>91</v>
@@ -6396,16 +6424,16 @@
     </row>
     <row r="235" spans="2:6">
       <c r="B235">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C235">
         <v>250015</v>
       </c>
       <c r="D235">
-        <v>600227</v>
+        <v>600228</v>
       </c>
       <c r="E235">
-        <v>610227</v>
+        <v>610228</v>
       </c>
       <c r="F235" t="s">
         <v>91</v>
@@ -6413,16 +6441,16 @@
     </row>
     <row r="236" spans="2:6">
       <c r="B236">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C236">
         <v>250015</v>
       </c>
       <c r="D236">
-        <v>600228</v>
+        <v>600229</v>
       </c>
       <c r="E236">
-        <v>610228</v>
+        <v>610229</v>
       </c>
       <c r="F236" t="s">
         <v>91</v>
@@ -6430,16 +6458,16 @@
     </row>
     <row r="237" spans="2:6">
       <c r="B237">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C237">
         <v>250015</v>
       </c>
       <c r="D237">
-        <v>600229</v>
+        <v>600230</v>
       </c>
       <c r="E237">
-        <v>610229</v>
+        <v>610230</v>
       </c>
       <c r="F237" t="s">
         <v>91</v>
@@ -6447,16 +6475,16 @@
     </row>
     <row r="238" spans="2:6">
       <c r="B238">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C238">
         <v>250015</v>
       </c>
       <c r="D238">
-        <v>600230</v>
+        <v>600231</v>
       </c>
       <c r="E238">
-        <v>610230</v>
+        <v>610231</v>
       </c>
       <c r="F238" t="s">
         <v>91</v>
@@ -6464,16 +6492,16 @@
     </row>
     <row r="239" spans="2:6">
       <c r="B239">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C239">
         <v>250015</v>
       </c>
       <c r="D239">
-        <v>600231</v>
+        <v>600232</v>
       </c>
       <c r="E239">
-        <v>610231</v>
+        <v>610232</v>
       </c>
       <c r="F239" t="s">
         <v>91</v>
@@ -6481,16 +6509,16 @@
     </row>
     <row r="240" spans="2:6">
       <c r="B240">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C240">
         <v>250015</v>
       </c>
       <c r="D240">
-        <v>600232</v>
+        <v>600233</v>
       </c>
       <c r="E240">
-        <v>610232</v>
+        <v>610233</v>
       </c>
       <c r="F240" t="s">
         <v>91</v>
@@ -6498,16 +6526,16 @@
     </row>
     <row r="241" spans="2:6">
       <c r="B241">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C241">
         <v>250015</v>
       </c>
       <c r="D241">
-        <v>600233</v>
+        <v>600234</v>
       </c>
       <c r="E241">
-        <v>610233</v>
+        <v>610234</v>
       </c>
       <c r="F241" t="s">
         <v>91</v>
@@ -6515,16 +6543,16 @@
     </row>
     <row r="242" spans="2:6">
       <c r="B242">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C242">
         <v>250015</v>
       </c>
       <c r="D242">
-        <v>600234</v>
+        <v>600235</v>
       </c>
       <c r="E242">
-        <v>610234</v>
+        <v>610235</v>
       </c>
       <c r="F242" t="s">
         <v>91</v>
@@ -6532,16 +6560,16 @@
     </row>
     <row r="243" spans="2:6">
       <c r="B243">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C243">
         <v>250015</v>
       </c>
       <c r="D243">
-        <v>600235</v>
+        <v>600236</v>
       </c>
       <c r="E243">
-        <v>610235</v>
+        <v>610236</v>
       </c>
       <c r="F243" t="s">
         <v>91</v>
@@ -6549,16 +6577,16 @@
     </row>
     <row r="244" spans="2:6">
       <c r="B244">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C244">
         <v>250015</v>
       </c>
       <c r="D244">
-        <v>600236</v>
+        <v>600237</v>
       </c>
       <c r="E244">
-        <v>610236</v>
+        <v>610237</v>
       </c>
       <c r="F244" t="s">
         <v>91</v>
@@ -6566,16 +6594,16 @@
     </row>
     <row r="245" spans="2:6">
       <c r="B245">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C245">
         <v>250015</v>
       </c>
       <c r="D245">
-        <v>600237</v>
+        <v>600238</v>
       </c>
       <c r="E245">
-        <v>610237</v>
+        <v>610238</v>
       </c>
       <c r="F245" t="s">
         <v>91</v>
@@ -6583,16 +6611,16 @@
     </row>
     <row r="246" spans="2:6">
       <c r="B246">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C246">
         <v>250015</v>
       </c>
       <c r="D246">
-        <v>600238</v>
+        <v>600239</v>
       </c>
       <c r="E246">
-        <v>610238</v>
+        <v>610239</v>
       </c>
       <c r="F246" t="s">
         <v>91</v>
@@ -6600,16 +6628,16 @@
     </row>
     <row r="247" spans="2:6">
       <c r="B247">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247">
         <v>250015</v>
       </c>
       <c r="D247">
-        <v>600239</v>
+        <v>600240</v>
       </c>
       <c r="E247">
-        <v>610239</v>
+        <v>610240</v>
       </c>
       <c r="F247" t="s">
         <v>91</v>
@@ -6617,33 +6645,33 @@
     </row>
     <row r="248" spans="2:6">
       <c r="B248">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C248">
-        <v>250015</v>
+        <v>250016</v>
       </c>
       <c r="D248">
-        <v>600240</v>
+        <v>600241</v>
       </c>
       <c r="E248">
-        <v>610240</v>
+        <v>610241</v>
       </c>
       <c r="F248" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="249" spans="2:6">
       <c r="B249">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C249">
         <v>250016</v>
       </c>
       <c r="D249">
-        <v>600241</v>
+        <v>600242</v>
       </c>
       <c r="E249">
-        <v>610241</v>
+        <v>610242</v>
       </c>
       <c r="F249" t="s">
         <v>92</v>
@@ -6651,16 +6679,16 @@
     </row>
     <row r="250" spans="2:6">
       <c r="B250">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C250">
         <v>250016</v>
       </c>
       <c r="D250">
-        <v>600242</v>
+        <v>600243</v>
       </c>
       <c r="E250">
-        <v>610242</v>
+        <v>610243</v>
       </c>
       <c r="F250" t="s">
         <v>92</v>
@@ -6668,16 +6696,16 @@
     </row>
     <row r="251" spans="2:6">
       <c r="B251">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C251">
         <v>250016</v>
       </c>
       <c r="D251">
-        <v>600243</v>
+        <v>600244</v>
       </c>
       <c r="E251">
-        <v>610243</v>
+        <v>610244</v>
       </c>
       <c r="F251" t="s">
         <v>92</v>
@@ -6685,16 +6713,16 @@
     </row>
     <row r="252" spans="2:6">
       <c r="B252">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C252">
         <v>250016</v>
       </c>
       <c r="D252">
-        <v>600244</v>
+        <v>600245</v>
       </c>
       <c r="E252">
-        <v>610244</v>
+        <v>610245</v>
       </c>
       <c r="F252" t="s">
         <v>92</v>
@@ -6702,16 +6730,16 @@
     </row>
     <row r="253" spans="2:6">
       <c r="B253">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C253">
         <v>250016</v>
       </c>
       <c r="D253">
-        <v>600245</v>
+        <v>600246</v>
       </c>
       <c r="E253">
-        <v>610245</v>
+        <v>610246</v>
       </c>
       <c r="F253" t="s">
         <v>92</v>
@@ -6719,16 +6747,16 @@
     </row>
     <row r="254" spans="2:6">
       <c r="B254">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C254">
         <v>250016</v>
       </c>
       <c r="D254">
-        <v>600246</v>
+        <v>600247</v>
       </c>
       <c r="E254">
-        <v>610246</v>
+        <v>610247</v>
       </c>
       <c r="F254" t="s">
         <v>92</v>
@@ -6736,16 +6764,16 @@
     </row>
     <row r="255" spans="2:6">
       <c r="B255">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C255">
         <v>250016</v>
       </c>
       <c r="D255">
-        <v>600247</v>
+        <v>600248</v>
       </c>
       <c r="E255">
-        <v>610247</v>
+        <v>610248</v>
       </c>
       <c r="F255" t="s">
         <v>92</v>
@@ -6753,16 +6781,16 @@
     </row>
     <row r="256" spans="2:6">
       <c r="B256">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C256">
         <v>250016</v>
       </c>
       <c r="D256">
-        <v>600248</v>
+        <v>600249</v>
       </c>
       <c r="E256">
-        <v>610248</v>
+        <v>610249</v>
       </c>
       <c r="F256" t="s">
         <v>92</v>
@@ -6770,16 +6798,16 @@
     </row>
     <row r="257" spans="2:6">
       <c r="B257">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C257">
         <v>250016</v>
       </c>
       <c r="D257">
-        <v>600249</v>
+        <v>600250</v>
       </c>
       <c r="E257">
-        <v>610249</v>
+        <v>610250</v>
       </c>
       <c r="F257" t="s">
         <v>92</v>
@@ -6787,16 +6815,16 @@
     </row>
     <row r="258" spans="2:6">
       <c r="B258">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C258">
         <v>250016</v>
       </c>
       <c r="D258">
-        <v>600250</v>
+        <v>600251</v>
       </c>
       <c r="E258">
-        <v>610250</v>
+        <v>610251</v>
       </c>
       <c r="F258" t="s">
         <v>92</v>
@@ -6804,16 +6832,16 @@
     </row>
     <row r="259" spans="2:6">
       <c r="B259">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C259">
         <v>250016</v>
       </c>
       <c r="D259">
-        <v>600251</v>
+        <v>600252</v>
       </c>
       <c r="E259">
-        <v>610251</v>
+        <v>610252</v>
       </c>
       <c r="F259" t="s">
         <v>92</v>
@@ -6821,16 +6849,16 @@
     </row>
     <row r="260" spans="2:6">
       <c r="B260">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C260">
         <v>250016</v>
       </c>
       <c r="D260">
-        <v>600252</v>
+        <v>600253</v>
       </c>
       <c r="E260">
-        <v>610252</v>
+        <v>610253</v>
       </c>
       <c r="F260" t="s">
         <v>92</v>
@@ -6838,16 +6866,16 @@
     </row>
     <row r="261" spans="2:6">
       <c r="B261">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C261">
         <v>250016</v>
       </c>
       <c r="D261">
-        <v>600253</v>
+        <v>600254</v>
       </c>
       <c r="E261">
-        <v>610253</v>
+        <v>610254</v>
       </c>
       <c r="F261" t="s">
         <v>92</v>
@@ -6855,16 +6883,16 @@
     </row>
     <row r="262" spans="2:6">
       <c r="B262">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C262">
         <v>250016</v>
       </c>
       <c r="D262">
-        <v>600254</v>
+        <v>600255</v>
       </c>
       <c r="E262">
-        <v>610254</v>
+        <v>610255</v>
       </c>
       <c r="F262" t="s">
         <v>92</v>
@@ -6872,16 +6900,16 @@
     </row>
     <row r="263" spans="2:6">
       <c r="B263">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C263">
         <v>250016</v>
       </c>
       <c r="D263">
-        <v>600255</v>
+        <v>600256</v>
       </c>
       <c r="E263">
-        <v>610255</v>
+        <v>610256</v>
       </c>
       <c r="F263" t="s">
         <v>92</v>
@@ -6889,33 +6917,33 @@
     </row>
     <row r="264" spans="2:6">
       <c r="B264">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C264">
-        <v>250016</v>
+        <v>250017</v>
       </c>
       <c r="D264">
-        <v>600256</v>
+        <v>600257</v>
       </c>
       <c r="E264">
-        <v>610256</v>
+        <v>610257</v>
       </c>
       <c r="F264" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265" spans="2:6">
       <c r="B265">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C265">
         <v>250017</v>
       </c>
       <c r="D265">
-        <v>600257</v>
+        <v>600258</v>
       </c>
       <c r="E265">
-        <v>610257</v>
+        <v>610258</v>
       </c>
       <c r="F265" t="s">
         <v>93</v>
@@ -6923,16 +6951,16 @@
     </row>
     <row r="266" spans="2:6">
       <c r="B266">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C266">
         <v>250017</v>
       </c>
       <c r="D266">
-        <v>600258</v>
+        <v>600259</v>
       </c>
       <c r="E266">
-        <v>610258</v>
+        <v>610259</v>
       </c>
       <c r="F266" t="s">
         <v>93</v>
@@ -6940,16 +6968,16 @@
     </row>
     <row r="267" spans="2:6">
       <c r="B267">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C267">
         <v>250017</v>
       </c>
       <c r="D267">
-        <v>600259</v>
+        <v>600260</v>
       </c>
       <c r="E267">
-        <v>610259</v>
+        <v>610260</v>
       </c>
       <c r="F267" t="s">
         <v>93</v>
@@ -6957,16 +6985,16 @@
     </row>
     <row r="268" spans="2:6">
       <c r="B268">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C268">
         <v>250017</v>
       </c>
       <c r="D268">
-        <v>600260</v>
+        <v>600261</v>
       </c>
       <c r="E268">
-        <v>610260</v>
+        <v>610261</v>
       </c>
       <c r="F268" t="s">
         <v>93</v>
@@ -6974,16 +7002,16 @@
     </row>
     <row r="269" spans="2:6">
       <c r="B269">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C269">
         <v>250017</v>
       </c>
       <c r="D269">
-        <v>600261</v>
+        <v>600262</v>
       </c>
       <c r="E269">
-        <v>610261</v>
+        <v>610262</v>
       </c>
       <c r="F269" t="s">
         <v>93</v>
@@ -6991,16 +7019,16 @@
     </row>
     <row r="270" spans="2:6">
       <c r="B270">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C270">
         <v>250017</v>
       </c>
       <c r="D270">
-        <v>600262</v>
+        <v>600263</v>
       </c>
       <c r="E270">
-        <v>610262</v>
+        <v>610263</v>
       </c>
       <c r="F270" t="s">
         <v>93</v>
@@ -7008,16 +7036,16 @@
     </row>
     <row r="271" spans="2:6">
       <c r="B271">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271">
         <v>250017</v>
       </c>
       <c r="D271">
-        <v>600263</v>
+        <v>600264</v>
       </c>
       <c r="E271">
-        <v>610263</v>
+        <v>610264</v>
       </c>
       <c r="F271" t="s">
         <v>93</v>
@@ -7025,16 +7053,16 @@
     </row>
     <row r="272" spans="2:6">
       <c r="B272">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C272">
         <v>250017</v>
       </c>
       <c r="D272">
-        <v>600264</v>
+        <v>600265</v>
       </c>
       <c r="E272">
-        <v>610264</v>
+        <v>610265</v>
       </c>
       <c r="F272" t="s">
         <v>93</v>
@@ -7042,16 +7070,16 @@
     </row>
     <row r="273" spans="2:6">
       <c r="B273">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C273">
         <v>250017</v>
       </c>
       <c r="D273">
-        <v>600265</v>
+        <v>600266</v>
       </c>
       <c r="E273">
-        <v>610265</v>
+        <v>610266</v>
       </c>
       <c r="F273" t="s">
         <v>93</v>
@@ -7059,16 +7087,16 @@
     </row>
     <row r="274" spans="2:6">
       <c r="B274">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C274">
         <v>250017</v>
       </c>
       <c r="D274">
-        <v>600266</v>
+        <v>600267</v>
       </c>
       <c r="E274">
-        <v>610266</v>
+        <v>610267</v>
       </c>
       <c r="F274" t="s">
         <v>93</v>
@@ -7076,16 +7104,16 @@
     </row>
     <row r="275" spans="2:6">
       <c r="B275">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C275">
         <v>250017</v>
       </c>
       <c r="D275">
-        <v>600267</v>
+        <v>600268</v>
       </c>
       <c r="E275">
-        <v>610267</v>
+        <v>610268</v>
       </c>
       <c r="F275" t="s">
         <v>93</v>
@@ -7093,16 +7121,16 @@
     </row>
     <row r="276" spans="2:6">
       <c r="B276">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C276">
         <v>250017</v>
       </c>
       <c r="D276">
-        <v>600268</v>
+        <v>600269</v>
       </c>
       <c r="E276">
-        <v>610268</v>
+        <v>610269</v>
       </c>
       <c r="F276" t="s">
         <v>93</v>
@@ -7110,16 +7138,16 @@
     </row>
     <row r="277" spans="2:6">
       <c r="B277">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C277">
         <v>250017</v>
       </c>
       <c r="D277">
-        <v>600269</v>
+        <v>600270</v>
       </c>
       <c r="E277">
-        <v>610269</v>
+        <v>610270</v>
       </c>
       <c r="F277" t="s">
         <v>93</v>
@@ -7127,16 +7155,16 @@
     </row>
     <row r="278" spans="2:6">
       <c r="B278">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C278">
         <v>250017</v>
       </c>
       <c r="D278">
-        <v>600270</v>
+        <v>600271</v>
       </c>
       <c r="E278">
-        <v>610270</v>
+        <v>610271</v>
       </c>
       <c r="F278" t="s">
         <v>93</v>
@@ -7144,16 +7172,16 @@
     </row>
     <row r="279" spans="2:6">
       <c r="B279">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C279">
         <v>250017</v>
       </c>
       <c r="D279">
-        <v>600271</v>
+        <v>600272</v>
       </c>
       <c r="E279">
-        <v>610271</v>
+        <v>610272</v>
       </c>
       <c r="F279" t="s">
         <v>93</v>
@@ -7161,33 +7189,33 @@
     </row>
     <row r="280" spans="2:6">
       <c r="B280">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C280">
-        <v>250017</v>
+        <v>250018</v>
       </c>
       <c r="D280">
-        <v>600272</v>
+        <v>600273</v>
       </c>
       <c r="E280">
-        <v>610272</v>
+        <v>610273</v>
       </c>
       <c r="F280" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="2:6">
       <c r="B281">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C281">
         <v>250018</v>
       </c>
       <c r="D281">
-        <v>600273</v>
+        <v>600274</v>
       </c>
       <c r="E281">
-        <v>610273</v>
+        <v>610274</v>
       </c>
       <c r="F281" t="s">
         <v>94</v>
@@ -7195,16 +7223,16 @@
     </row>
     <row r="282" spans="2:6">
       <c r="B282">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C282">
         <v>250018</v>
       </c>
       <c r="D282">
-        <v>600274</v>
+        <v>600275</v>
       </c>
       <c r="E282">
-        <v>610274</v>
+        <v>610275</v>
       </c>
       <c r="F282" t="s">
         <v>94</v>
@@ -7212,16 +7240,16 @@
     </row>
     <row r="283" spans="2:6">
       <c r="B283">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C283">
         <v>250018</v>
       </c>
       <c r="D283">
-        <v>600275</v>
+        <v>600276</v>
       </c>
       <c r="E283">
-        <v>610275</v>
+        <v>610276</v>
       </c>
       <c r="F283" t="s">
         <v>94</v>
@@ -7229,16 +7257,16 @@
     </row>
     <row r="284" spans="2:6">
       <c r="B284">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C284">
         <v>250018</v>
       </c>
       <c r="D284">
-        <v>600276</v>
+        <v>600277</v>
       </c>
       <c r="E284">
-        <v>610276</v>
+        <v>610277</v>
       </c>
       <c r="F284" t="s">
         <v>94</v>
@@ -7246,16 +7274,16 @@
     </row>
     <row r="285" spans="2:6">
       <c r="B285">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C285">
         <v>250018</v>
       </c>
       <c r="D285">
-        <v>600277</v>
+        <v>600278</v>
       </c>
       <c r="E285">
-        <v>610277</v>
+        <v>610278</v>
       </c>
       <c r="F285" t="s">
         <v>94</v>
@@ -7263,16 +7291,16 @@
     </row>
     <row r="286" spans="2:6">
       <c r="B286">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C286">
         <v>250018</v>
       </c>
       <c r="D286">
-        <v>600278</v>
+        <v>600279</v>
       </c>
       <c r="E286">
-        <v>610278</v>
+        <v>610279</v>
       </c>
       <c r="F286" t="s">
         <v>94</v>
@@ -7280,16 +7308,16 @@
     </row>
     <row r="287" spans="2:6">
       <c r="B287">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C287">
         <v>250018</v>
       </c>
       <c r="D287">
-        <v>600279</v>
+        <v>600280</v>
       </c>
       <c r="E287">
-        <v>610279</v>
+        <v>610280</v>
       </c>
       <c r="F287" t="s">
         <v>94</v>
@@ -7297,16 +7325,16 @@
     </row>
     <row r="288" spans="2:6">
       <c r="B288">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C288">
         <v>250018</v>
       </c>
       <c r="D288">
-        <v>600280</v>
+        <v>600281</v>
       </c>
       <c r="E288">
-        <v>610280</v>
+        <v>610281</v>
       </c>
       <c r="F288" t="s">
         <v>94</v>
@@ -7314,16 +7342,16 @@
     </row>
     <row r="289" spans="2:6">
       <c r="B289">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C289">
         <v>250018</v>
       </c>
       <c r="D289">
-        <v>600281</v>
+        <v>600282</v>
       </c>
       <c r="E289">
-        <v>610281</v>
+        <v>610282</v>
       </c>
       <c r="F289" t="s">
         <v>94</v>
@@ -7331,16 +7359,16 @@
     </row>
     <row r="290" spans="2:6">
       <c r="B290">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290">
         <v>250018</v>
       </c>
       <c r="D290">
-        <v>600282</v>
+        <v>600283</v>
       </c>
       <c r="E290">
-        <v>610282</v>
+        <v>610283</v>
       </c>
       <c r="F290" t="s">
         <v>94</v>
@@ -7348,16 +7376,16 @@
     </row>
     <row r="291" spans="2:6">
       <c r="B291">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C291">
         <v>250018</v>
       </c>
       <c r="D291">
-        <v>600283</v>
+        <v>600284</v>
       </c>
       <c r="E291">
-        <v>610283</v>
+        <v>610284</v>
       </c>
       <c r="F291" t="s">
         <v>94</v>
@@ -7365,16 +7393,16 @@
     </row>
     <row r="292" spans="2:6">
       <c r="B292">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292">
         <v>250018</v>
       </c>
       <c r="D292">
-        <v>600284</v>
+        <v>600285</v>
       </c>
       <c r="E292">
-        <v>610284</v>
+        <v>610285</v>
       </c>
       <c r="F292" t="s">
         <v>94</v>
@@ -7382,16 +7410,16 @@
     </row>
     <row r="293" spans="2:6">
       <c r="B293">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293">
         <v>250018</v>
       </c>
       <c r="D293">
-        <v>600285</v>
+        <v>600286</v>
       </c>
       <c r="E293">
-        <v>610285</v>
+        <v>610286</v>
       </c>
       <c r="F293" t="s">
         <v>94</v>
@@ -7399,16 +7427,16 @@
     </row>
     <row r="294" spans="2:6">
       <c r="B294">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C294">
         <v>250018</v>
       </c>
       <c r="D294">
-        <v>600286</v>
+        <v>600287</v>
       </c>
       <c r="E294">
-        <v>610286</v>
+        <v>610287</v>
       </c>
       <c r="F294" t="s">
         <v>94</v>
@@ -7416,16 +7444,16 @@
     </row>
     <row r="295" spans="2:6">
       <c r="B295">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C295">
         <v>250018</v>
       </c>
       <c r="D295">
-        <v>600287</v>
+        <v>600288</v>
       </c>
       <c r="E295">
-        <v>610287</v>
+        <v>610288</v>
       </c>
       <c r="F295" t="s">
         <v>94</v>
@@ -7433,33 +7461,33 @@
     </row>
     <row r="296" spans="2:6">
       <c r="B296">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296">
-        <v>250018</v>
+        <v>250019</v>
       </c>
       <c r="D296">
-        <v>600288</v>
+        <v>600289</v>
       </c>
       <c r="E296">
-        <v>610288</v>
+        <v>610289</v>
       </c>
       <c r="F296" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="2:6">
       <c r="B297">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297">
         <v>250019</v>
       </c>
       <c r="D297">
-        <v>600289</v>
+        <v>600290</v>
       </c>
       <c r="E297">
-        <v>610289</v>
+        <v>610290</v>
       </c>
       <c r="F297" t="s">
         <v>95</v>
@@ -7467,16 +7495,16 @@
     </row>
     <row r="298" spans="2:6">
       <c r="B298">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298">
         <v>250019</v>
       </c>
       <c r="D298">
-        <v>600290</v>
+        <v>600291</v>
       </c>
       <c r="E298">
-        <v>610290</v>
+        <v>610291</v>
       </c>
       <c r="F298" t="s">
         <v>95</v>
@@ -7484,16 +7512,16 @@
     </row>
     <row r="299" spans="2:6">
       <c r="B299">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299">
         <v>250019</v>
       </c>
       <c r="D299">
-        <v>600291</v>
+        <v>600292</v>
       </c>
       <c r="E299">
-        <v>610291</v>
+        <v>610292</v>
       </c>
       <c r="F299" t="s">
         <v>95</v>
@@ -7501,16 +7529,16 @@
     </row>
     <row r="300" spans="2:6">
       <c r="B300">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300">
         <v>250019</v>
       </c>
       <c r="D300">
-        <v>600292</v>
+        <v>600293</v>
       </c>
       <c r="E300">
-        <v>610292</v>
+        <v>610293</v>
       </c>
       <c r="F300" t="s">
         <v>95</v>
@@ -7518,16 +7546,16 @@
     </row>
     <row r="301" spans="2:6">
       <c r="B301">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301">
         <v>250019</v>
       </c>
       <c r="D301">
-        <v>600293</v>
+        <v>600294</v>
       </c>
       <c r="E301">
-        <v>610293</v>
+        <v>610294</v>
       </c>
       <c r="F301" t="s">
         <v>95</v>
@@ -7535,16 +7563,16 @@
     </row>
     <row r="302" spans="2:6">
       <c r="B302">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302">
         <v>250019</v>
       </c>
       <c r="D302">
-        <v>600294</v>
+        <v>600295</v>
       </c>
       <c r="E302">
-        <v>610294</v>
+        <v>610295</v>
       </c>
       <c r="F302" t="s">
         <v>95</v>
@@ -7552,16 +7580,16 @@
     </row>
     <row r="303" spans="2:6">
       <c r="B303">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303">
         <v>250019</v>
       </c>
       <c r="D303">
-        <v>600295</v>
+        <v>600296</v>
       </c>
       <c r="E303">
-        <v>610295</v>
+        <v>610296</v>
       </c>
       <c r="F303" t="s">
         <v>95</v>
@@ -7569,16 +7597,16 @@
     </row>
     <row r="304" spans="2:6">
       <c r="B304">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304">
         <v>250019</v>
       </c>
       <c r="D304">
-        <v>600296</v>
+        <v>600297</v>
       </c>
       <c r="E304">
-        <v>610296</v>
+        <v>610297</v>
       </c>
       <c r="F304" t="s">
         <v>95</v>
@@ -7586,16 +7614,16 @@
     </row>
     <row r="305" spans="2:6">
       <c r="B305">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305">
         <v>250019</v>
       </c>
       <c r="D305">
-        <v>600297</v>
+        <v>600298</v>
       </c>
       <c r="E305">
-        <v>610297</v>
+        <v>610298</v>
       </c>
       <c r="F305" t="s">
         <v>95</v>
@@ -7603,16 +7631,16 @@
     </row>
     <row r="306" spans="2:6">
       <c r="B306">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306">
         <v>250019</v>
       </c>
       <c r="D306">
-        <v>600298</v>
+        <v>600299</v>
       </c>
       <c r="E306">
-        <v>610298</v>
+        <v>610299</v>
       </c>
       <c r="F306" t="s">
         <v>95</v>
@@ -7620,35 +7648,18 @@
     </row>
     <row r="307" spans="2:6">
       <c r="B307">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307">
         <v>250019</v>
       </c>
       <c r="D307">
-        <v>600299</v>
+        <v>600300</v>
       </c>
       <c r="E307">
-        <v>610299</v>
+        <v>610300</v>
       </c>
       <c r="F307" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="308" spans="2:6">
-      <c r="B308">
-        <v>300</v>
-      </c>
-      <c r="C308">
-        <v>250019</v>
-      </c>
-      <c r="D308">
-        <v>600300</v>
-      </c>
-      <c r="E308">
-        <v>610300</v>
-      </c>
-      <c r="F308" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7662,10 +7673,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7679,1313 +7690,1313 @@
     <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>97</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>103</v>
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="12" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>620001</v>
+      </c>
+      <c r="E8">
+        <v>630001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>620001</v>
+        <v>620002</v>
       </c>
       <c r="E9">
-        <v>630001</v>
+        <v>630002</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>620002</v>
+        <v>620003</v>
       </c>
       <c r="E10">
-        <v>630002</v>
+        <v>630003</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>620003</v>
+        <v>620004</v>
       </c>
       <c r="E11">
-        <v>630003</v>
+        <v>630004</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>620004</v>
+        <v>620005</v>
       </c>
       <c r="E12">
-        <v>630004</v>
+        <v>630005</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>620005</v>
+        <v>620006</v>
       </c>
       <c r="E13">
-        <v>630005</v>
+        <v>630006</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>620006</v>
+        <v>620007</v>
       </c>
       <c r="E14">
-        <v>630006</v>
+        <v>630007</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>620007</v>
+        <v>620008</v>
       </c>
       <c r="E15">
-        <v>630007</v>
+        <v>630008</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>620008</v>
+        <v>620009</v>
       </c>
       <c r="E16">
-        <v>630008</v>
+        <v>630009</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>620009</v>
+        <v>620010</v>
       </c>
       <c r="E17">
-        <v>630009</v>
+        <v>630010</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>620010</v>
+        <v>620011</v>
       </c>
       <c r="E18">
-        <v>630010</v>
+        <v>630011</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>620011</v>
+        <v>620012</v>
       </c>
       <c r="E19">
-        <v>630011</v>
+        <v>630012</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>620012</v>
+        <v>620013</v>
       </c>
       <c r="E20">
-        <v>630012</v>
+        <v>630013</v>
       </c>
       <c r="F20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>620013</v>
+        <v>620014</v>
       </c>
       <c r="E21">
-        <v>630013</v>
+        <v>630014</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>620014</v>
+        <v>620015</v>
       </c>
       <c r="E22">
-        <v>630014</v>
+        <v>630015</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D23">
-        <v>620015</v>
+        <v>620016</v>
       </c>
       <c r="E23">
-        <v>630015</v>
+        <v>630016</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>620016</v>
+        <v>620017</v>
       </c>
       <c r="E24">
-        <v>630016</v>
+        <v>630017</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D25">
-        <v>620017</v>
+        <v>620018</v>
       </c>
       <c r="E25">
-        <v>630017</v>
+        <v>630018</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D26">
-        <v>620018</v>
+        <v>620019</v>
       </c>
       <c r="E26">
-        <v>630018</v>
+        <v>630019</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>620019</v>
+        <v>620020</v>
       </c>
       <c r="E27">
-        <v>630019</v>
+        <v>630020</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D28">
-        <v>620020</v>
+        <v>620021</v>
       </c>
       <c r="E28">
-        <v>630020</v>
+        <v>630021</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>620021</v>
+        <v>620022</v>
       </c>
       <c r="E29">
-        <v>630021</v>
+        <v>630022</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>620022</v>
+        <v>620023</v>
       </c>
       <c r="E30">
-        <v>630022</v>
+        <v>630023</v>
       </c>
       <c r="F30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>620023</v>
+        <v>620024</v>
       </c>
       <c r="E31">
-        <v>630023</v>
+        <v>630024</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D32">
-        <v>620024</v>
+        <v>620025</v>
       </c>
       <c r="E32">
-        <v>630024</v>
+        <v>630025</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>620025</v>
+        <v>620026</v>
       </c>
       <c r="E33">
-        <v>630025</v>
+        <v>630026</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D34">
-        <v>620026</v>
+        <v>620027</v>
       </c>
       <c r="E34">
-        <v>630026</v>
+        <v>630027</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D35">
-        <v>620027</v>
+        <v>620028</v>
       </c>
       <c r="E35">
-        <v>630027</v>
+        <v>630028</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D36">
-        <v>620028</v>
+        <v>620029</v>
       </c>
       <c r="E36">
-        <v>630028</v>
+        <v>630029</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D37">
-        <v>620029</v>
+        <v>620030</v>
       </c>
       <c r="E37">
-        <v>630029</v>
+        <v>630030</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D38">
-        <v>620030</v>
+        <v>620031</v>
       </c>
       <c r="E38">
-        <v>630030</v>
+        <v>630031</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D39">
-        <v>620031</v>
+        <v>620032</v>
       </c>
       <c r="E39">
-        <v>630031</v>
+        <v>630032</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D40">
-        <v>620032</v>
+        <v>620033</v>
       </c>
       <c r="E40">
-        <v>630032</v>
+        <v>630033</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D41">
-        <v>620033</v>
+        <v>620034</v>
       </c>
       <c r="E41">
-        <v>630033</v>
+        <v>630034</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D42">
-        <v>620034</v>
+        <v>620035</v>
       </c>
       <c r="E42">
-        <v>630034</v>
+        <v>630035</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D43">
-        <v>620035</v>
+        <v>620036</v>
       </c>
       <c r="E43">
-        <v>630035</v>
+        <v>630036</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D44">
-        <v>620036</v>
+        <v>620037</v>
       </c>
       <c r="E44">
-        <v>630036</v>
+        <v>630037</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D45">
-        <v>620037</v>
+        <v>620038</v>
       </c>
       <c r="E45">
-        <v>630037</v>
+        <v>630038</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D46">
-        <v>620038</v>
+        <v>620039</v>
       </c>
       <c r="E46">
-        <v>630038</v>
+        <v>630039</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D47">
-        <v>620039</v>
+        <v>620040</v>
       </c>
       <c r="E47">
-        <v>630039</v>
+        <v>630040</v>
       </c>
       <c r="F47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D48">
-        <v>620040</v>
+        <v>620041</v>
       </c>
       <c r="E48">
-        <v>630040</v>
+        <v>630041</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D49">
-        <v>620041</v>
+        <v>620042</v>
       </c>
       <c r="E49">
-        <v>630041</v>
+        <v>630042</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D50">
-        <v>620042</v>
+        <v>620043</v>
       </c>
       <c r="E50">
-        <v>630042</v>
+        <v>630043</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D51">
-        <v>620043</v>
+        <v>620044</v>
       </c>
       <c r="E51">
-        <v>630043</v>
+        <v>630044</v>
       </c>
       <c r="F51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D52">
-        <v>620044</v>
+        <v>620045</v>
       </c>
       <c r="E52">
-        <v>630044</v>
+        <v>630045</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C53">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D53">
-        <v>620045</v>
+        <v>620046</v>
       </c>
       <c r="E53">
-        <v>630045</v>
+        <v>630046</v>
       </c>
       <c r="F53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D54">
-        <v>620046</v>
+        <v>620047</v>
       </c>
       <c r="E54">
-        <v>630046</v>
+        <v>630047</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C55">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D55">
-        <v>620047</v>
+        <v>620048</v>
       </c>
       <c r="E55">
-        <v>630047</v>
+        <v>630048</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D56">
-        <v>620048</v>
+        <v>620049</v>
       </c>
       <c r="E56">
-        <v>630048</v>
+        <v>630049</v>
       </c>
       <c r="F56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D57">
-        <v>620049</v>
+        <v>620050</v>
       </c>
       <c r="E57">
-        <v>630049</v>
+        <v>630050</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D58">
-        <v>620050</v>
+        <v>620051</v>
       </c>
       <c r="E58">
-        <v>630050</v>
+        <v>630051</v>
       </c>
       <c r="F58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D59">
-        <v>620051</v>
+        <v>620052</v>
       </c>
       <c r="E59">
-        <v>630051</v>
+        <v>630052</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D60">
-        <v>620052</v>
+        <v>620053</v>
       </c>
       <c r="E60">
-        <v>630052</v>
+        <v>630053</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D61">
-        <v>620053</v>
+        <v>620054</v>
       </c>
       <c r="E61">
-        <v>630053</v>
+        <v>630054</v>
       </c>
       <c r="F61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D62">
-        <v>620054</v>
+        <v>620055</v>
       </c>
       <c r="E62">
-        <v>630054</v>
+        <v>630055</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D63">
-        <v>620055</v>
+        <v>620056</v>
       </c>
       <c r="E63">
-        <v>630055</v>
+        <v>630056</v>
       </c>
       <c r="F63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D64">
-        <v>620056</v>
+        <v>620057</v>
       </c>
       <c r="E64">
-        <v>630056</v>
+        <v>630057</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="2:7">
       <c r="B65">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D65">
-        <v>620057</v>
+        <v>620058</v>
       </c>
       <c r="E65">
-        <v>630057</v>
+        <v>630058</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:7">
       <c r="B66">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D66">
-        <v>620058</v>
+        <v>620059</v>
       </c>
       <c r="E66">
-        <v>630058</v>
+        <v>630059</v>
       </c>
       <c r="F66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D67">
-        <v>620059</v>
+        <v>620060</v>
       </c>
       <c r="E67">
-        <v>630059</v>
+        <v>630060</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G67" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68">
-        <v>60</v>
-      </c>
-      <c r="C68">
-        <v>300</v>
-      </c>
-      <c r="D68">
-        <v>620060</v>
-      </c>
-      <c r="E68">
-        <v>630060</v>
-      </c>
-      <c r="F68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G68" t="s">
         <v>228</v>
       </c>
     </row>
